--- a/VITL.xlsx
+++ b/VITL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC1E9F4-6BC5-44F6-A1F4-5B83F90BD30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CAEBB7-A4C5-4F51-B35C-CEAD4F789160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="45" windowWidth="15120" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,27 +23,14 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$B$5</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Model!$L$19:$AA$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Model!$L$20:$AA$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Model!$L$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Model!$P$19:$AA$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Model!$P$20:$AA$20</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Model!$B$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Model!$L$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Model!$L$5:$AA$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Model!$L$6:$AA$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Model!$P$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Model!$P$5:$AA$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Model!$P$6:$AA$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$5:$AA$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$6:$AA$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$P$2:$AA$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$P$5:$AA$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$P$6:$AA$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$20</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$M$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$M$5:$X$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$M$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$19</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$20</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$M$19:$X$19</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$M$20:$X$20</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$M$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -331,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="214">
   <si>
     <t>Price</t>
   </si>
@@ -361,15 +348,6 @@
   </si>
   <si>
     <t>Q123</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
   </si>
   <si>
     <t>Q122</t>
@@ -430,9 +408,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>Q121</t>
   </si>
   <si>
     <t>FY19</t>
@@ -565,9 +540,6 @@
   </si>
   <si>
     <t>Inventories</t>
-  </si>
-  <si>
-    <t>Interest Rate debt</t>
   </si>
   <si>
     <t>RG1</t>
@@ -967,6 +939,27 @@
   </si>
   <si>
     <t>Income Tax receivable</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>EQ q/q</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1702,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1758,19 +1751,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1857,11 +1843,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1919,10 +1904,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2049,21 +2047,19 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
+            <c:extLst/>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2082,7 +2078,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="10"/>
+            <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2103,7 +2099,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2180,14 +2176,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$2:$AA$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$P$2:$AA$2</c:f>
+              <c:f>Model!$M$2:$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2231,14 +2220,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$5:$AA$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$P$5:$AA$5</c:f>
+              <c:f>Model!$M$5:$X$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2273,10 +2255,10 @@
                   <c:v>147.38800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>144.71</c:v>
+                  <c:v>145.00200000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156.75</c:v>
+                  <c:v>165.988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2383,62 +2365,9 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="12"/>
-              <c:pt idx="0">
-                <c:v>500%</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>600%</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>700%</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>800%</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>900%</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>1000%</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>1100%</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>1200%</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>1300%</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>1400%</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>1500%</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>1600%</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$23:$AA$23</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$P$23:$AA$23</c:f>
+              <c:f>Model!$M$23:$X$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2461,10 +2390,10 @@
                   <c:v>0.38463995490628977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31043475898541151</c:v>
+                  <c:v>0.31307899193146738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15417749666816349</c:v>
+                  <c:v>0.22219849643990508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2684,6 +2613,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2691,7 +2621,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2988,10 +2917,10 @@
                   <c:v>471.85700000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>596.79</c:v>
+                  <c:v>606.3069999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>707.48</c:v>
+                  <c:v>776.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3126,10 +3055,10 @@
                   <c:v>0.30329236293329664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26476877528573262</c:v>
+                  <c:v>0.28493802147684555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18547562794282757</c:v>
+                  <c:v>0.2810341955478004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3349,6 +3278,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3356,7 +3286,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3549,14 +3478,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$2:$AA$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$P$2:$AA$2</c:f>
+              <c:f>Model!$M$2:$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3600,14 +3522,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$19:$AA$19</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$P$19:$AA$19</c:f>
+              <c:f>Model!$M$19:$X$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3642,10 +3557,10 @@
                   <c:v>0.36109251270177584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13</c:v>
+                  <c:v>0.16259067476493771</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18</c:v>
+                  <c:v>0.23390005890832635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3752,77 +3667,12 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="12"/>
-              <c:pt idx="0">
-                <c:v>500%</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>600%</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>700%</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>800%</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>900%</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>1000%</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>1100%</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>1200%</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>1300%</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>1400%</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>1500%</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>1600%</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$28:$AA$28</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$P$28:$AA$28</c:f>
+              <c:f>Model!$M$28:$X$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>-5.6549479166666359</c:v>
                 </c:pt>
@@ -3842,10 +3692,10 @@
                   <c:v>1.444860092772708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.994251602918428</c:v>
+                  <c:v>0.6343135087331444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.740638002773824</c:v>
+                  <c:v>0.47489597780859527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4065,6 +3915,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4072,7 +3923,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4362,10 +4212,10 @@
                   <c:v>0.59026381925210403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>1.1830577828928095</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.21</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4474,22 +4324,22 @@
             <c:strLit>
               <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>200%</c:v>
+                <c:v>2</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>300%</c:v>
+                <c:v>3</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>400%</c:v>
+                <c:v>4</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>500%</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>600%</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>700%</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -4524,10 +4374,10 @@
                   <c:v>19.510410754330085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84663190330908078</c:v>
+                  <c:v>1.0042864636219906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11009174311926584</c:v>
+                  <c:v>0.25099553158012977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4747,6 +4597,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4754,7 +4605,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4979,14 +4829,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$2:$AA$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$P$2:$AA$2</c:f>
+              <c:f>Model!$M$2:$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5030,14 +4873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$24:$AA$24</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$P$24:$AA$24</c:f>
+              <c:f>Model!$M$24:$X$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5072,10 +4908,10 @@
                   <c:v>0.22617852199636332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.24897587619481107</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.22513073234209693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5185,14 +5021,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$2:$AA$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$P$2:$AA$2</c:f>
+              <c:f>Model!$M$2:$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5236,14 +5065,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$L$25:$AA$25</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$P$25:$AA$25</c:f>
+              <c:f>Model!$M$25:$X$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5278,10 +5100,10 @@
                   <c:v>4.8871007137623143E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5.6095777989269111E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>5.7245102055570297E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5455,6 +5277,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5462,7 +5285,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5728,6 +5550,12 @@
                 <c:pt idx="4">
                   <c:v>0.21559074041499859</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22090953922682735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5883,6 +5711,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.7949760202773294E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3496001200711865E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6056,6 +5890,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6063,7 +5898,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6358,6 +6192,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6365,7 +6200,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6700,6 +6534,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6707,7 +6542,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6747,18 +6581,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.12</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.14</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.12</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6802,7 +6636,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6822,7 +6656,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6853,18 +6687,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.20</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.22</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.20</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.21</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6908,7 +6742,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6928,7 +6762,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13244,8 +13078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13266,117 +13100,117 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>45</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="20">
-        <v>45571</v>
+        <v>46000</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I3" s="10">
         <v>25.263000000000002</v>
       </c>
       <c r="J3" s="38"/>
       <c r="L3" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.76527777777777772</v>
+        <v>0.61527777777777781</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I4" s="10">
         <v>529.50199999999995</v>
       </c>
       <c r="J4" s="38"/>
       <c r="L4" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I5" s="10">
         <v>27.975000000000001</v>
       </c>
       <c r="J5" s="38"/>
       <c r="L5" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -13384,26 +13218,26 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>36.5</v>
+        <v>33.06</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I6" s="10">
         <v>3.9390000000000001</v>
       </c>
       <c r="J6" s="38"/>
       <c r="L6" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -13412,27 +13246,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!Y18</f>
-        <v>45.248792000000002</v>
+        <f>Model!AA18</f>
+        <v>46.205736999999999</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I7" s="10">
         <v>17.004000000000001</v>
       </c>
       <c r="J7" s="38"/>
       <c r="L7" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -13442,26 +13276,26 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>1651.5809080000001</v>
+        <v>1527.5616652200001</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I8" s="10">
         <v>142.20500000000001</v>
       </c>
       <c r="J8" s="38"/>
       <c r="L8" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -13470,27 +13304,27 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!Y33+Model!Y34</f>
-        <v>152.70600000000002</v>
+        <f>Model!AA33+Model!AA34</f>
+        <v>145.053</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I9" s="10">
         <v>8960.7800000000007</v>
       </c>
       <c r="J9" s="38"/>
       <c r="L9" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -13499,56 +13333,56 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!Y48+Model!Y52</f>
-        <v>13.213000000000001</v>
+        <f>Model!AA48+Model!AA52</f>
+        <v>11.225999999999999</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I10" s="10">
         <v>18.975000000000001</v>
       </c>
       <c r="J10" s="38"/>
       <c r="L10" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>139.49300000000002</v>
+        <v>133.827</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I11" s="10">
         <v>36.975000000000001</v>
       </c>
       <c r="J11" s="38"/>
       <c r="L11" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -13558,36 +13392,36 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>1512.0879080000002</v>
+        <v>1393.7346652200004</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I12">
         <v>3.581</v>
       </c>
       <c r="J12" s="13"/>
       <c r="L12" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="36">
-        <f>C6/Model!G19</f>
-        <v>61.836756395212333</v>
+        <f>Main!C6/Model!H19</f>
+        <v>27.944535320296684</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13596,11 +13430,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="36">
-        <f>C6/Model!H20</f>
-        <v>33.486238532110086</v>
+        <f>C6/Model!I20</f>
+        <v>22.337837837837839</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13614,225 +13448,244 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="36">
-        <f>C6/Model!I20</f>
-        <v>30.165289256198349</v>
+        <f>C6/Model!J20</f>
+        <v>19.562130177514796</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" s="6">
-        <f>Model!H20/Model!G19-1</f>
-        <v>0.84663190330908078</v>
+        <f>Model!I20/Model!H19-1</f>
+        <v>0.25099553158012977</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!I20/Model!H20-1</f>
-        <v>0.11009174311926584</v>
+        <f>Model!J20/Model!I20-1</f>
+        <v>0.14189189189189189</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="126" t="s">
-        <v>190</v>
-      </c>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
+        <v>50</v>
+      </c>
+      <c r="L17" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" s="119"/>
+      <c r="N17" s="120"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="50">
+        <v>64</v>
+      </c>
+      <c r="C18" s="46">
         <f>C14/(C16*100)</f>
-        <v>0.3955229941280069</v>
-      </c>
-      <c r="L18" s="129"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="131"/>
+        <v>0.88996954237436421</v>
+      </c>
+      <c r="L18" s="121"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="123"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="50">
+        <v>65</v>
+      </c>
+      <c r="C19" s="46">
         <f>C15/(C17*100)</f>
-        <v>2.7400137741046886</v>
-      </c>
-      <c r="L19" s="129"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="131"/>
+        <v>1.3786644125105665</v>
+      </c>
+      <c r="L19" s="121"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="123"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C20" s="6">
-        <f>Model!H5/Model!G5-1</f>
-        <v>0.26476877528573262</v>
-      </c>
-      <c r="L20" s="129"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="131"/>
+        <f>Model!I5/Model!H5-1</f>
+        <v>0.2810341955478004</v>
+      </c>
+      <c r="L20" s="121"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="123"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C21" s="6">
-        <f>Model!I5/Model!H5-1</f>
-        <v>0.18547562794282757</v>
-      </c>
-      <c r="L21" s="129"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="131"/>
+        <f>Model!J5/Model!I5-1</f>
+        <v>0.20218874726406577</v>
+      </c>
+      <c r="L21" s="121"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="123"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="131"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="123"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="15">
         <f>Model!F8</f>
         <v>77.236000000000004</v>
       </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="131"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="123"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!Y21</f>
-        <v>0.39133443699622772</v>
-      </c>
-      <c r="L24" s="129"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="131"/>
+        <f>Model!H21</f>
+        <v>0.3792237265939532</v>
+      </c>
+      <c r="L24" s="121"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="123"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!Y22</f>
-        <v>0.11085705756235251</v>
-      </c>
-      <c r="L25" s="129"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="131"/>
+        <f>AVERAGE(Model!X22:AA22)</f>
+        <v>8.5213272102727167E-2</v>
+      </c>
+      <c r="L25" s="121"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="123"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>19.577501527784971</v>
-      </c>
-      <c r="L26" s="129"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="131"/>
+        <v>18.045143006111143</v>
+      </c>
+      <c r="L26" s="121"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="123"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="120">
-        <f>C10/Model!Y55</f>
-        <v>5.541877603063488E-2</v>
+        <v>76</v>
+      </c>
+      <c r="C27" s="113">
+        <f>C10/Model!AA55</f>
+        <v>3.389329017921839E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="131"/>
+        <v>69</v>
+      </c>
+      <c r="L27" s="121"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="123"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C28" s="36"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="134"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="126"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!Y39/Model!Y50</f>
-        <v>3.4961412727082748</v>
+        <f>Model!AA39/Model!AA50</f>
+        <v>2.6509347525196407</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="36"/>
+        <v>79</v>
+      </c>
+      <c r="C30" s="36">
+        <f>(Model!AA33+Model!AA34+Model!AA35)/Model!AA50</f>
+        <v>1.9816461001618031</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="36"/>
+        <v>81</v>
+      </c>
+      <c r="C32" s="36">
+        <f>(Model!AA44-Model!AA54)/C7</f>
+        <v>7.1682873492527568</v>
+      </c>
+      <c r="D32" s="3">
+        <f>C32/C6</f>
+        <v>0.2168265985859878</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="36"/>
+        <v>82</v>
+      </c>
+      <c r="C33" s="36">
+        <f>AVERAGE(Model!X3:AA3)/AVERAGE(Model!X44:'Model'!AA44)</f>
+        <v>0.41460451070897553</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="C34" s="38">
+        <f>AVERAGE(Model!X17:AA17)/AVERAGE(Model!X44:AA44)</f>
+        <v>3.6756351468658646E-2</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="C35" s="38">
+        <f>AVERAGE(Model!X17:AA17)/AVERAGE(Model!X55:AA55)</f>
+        <v>5.0526975878105514E-2</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13845,102 +13698,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomRight" activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="25" max="25" width="11.42578125" style="13"/>
+    <col min="7" max="7" width="11.42578125" style="139"/>
+    <col min="8" max="8" width="11.42578125" style="13"/>
+    <col min="22" max="22" width="11.42578125" style="139"/>
+    <col min="27" max="27" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>207</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="V2" s="139" t="s">
+        <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="X2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>66</v>
+        <v>128</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>208</v>
       </c>
       <c r="Z2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D3" s="10">
         <v>196.69499999999999</v>
@@ -13951,51 +13812,66 @@
       <c r="F3" s="10">
         <v>339.214</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="140">
         <v>449.04500000000002</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="H3" s="15">
+        <v>580.95399999999995</v>
+      </c>
+      <c r="M3" s="10">
+        <v>72.120999999999995</v>
+      </c>
+      <c r="N3" s="10">
+        <v>78.106999999999999</v>
+      </c>
+      <c r="O3" s="10">
+        <v>86.191000000000003</v>
+      </c>
       <c r="P3" s="10">
-        <v>72.120999999999995</v>
+        <f>F3-O3-N3-M3</f>
+        <v>102.795</v>
       </c>
       <c r="Q3" s="10">
-        <v>78.106999999999999</v>
+        <v>112.79</v>
       </c>
       <c r="R3" s="10">
-        <v>86.191000000000003</v>
+        <v>101.785</v>
       </c>
       <c r="S3" s="10">
-        <f>F3-R3-Q3-P3</f>
-        <v>102.795</v>
+        <v>103.887</v>
       </c>
       <c r="T3" s="10">
-        <v>112.79</v>
+        <f>G3-S3-R3-Q3</f>
+        <v>130.58300000000003</v>
       </c>
       <c r="U3" s="10">
-        <v>101.785</v>
-      </c>
-      <c r="V3" s="10">
-        <v>103.887</v>
+        <v>143.761</v>
+      </c>
+      <c r="V3" s="140">
+        <v>142.941</v>
       </c>
       <c r="W3" s="10">
-        <f>G3-V3-U3-T3</f>
-        <v>130.58300000000003</v>
+        <v>138.142</v>
       </c>
       <c r="X3" s="10">
-        <v>143.761</v>
-      </c>
-      <c r="Y3" s="15">
-        <v>142.941</v>
-      </c>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <f>H3-W3-V3-U3</f>
+        <v>156.10999999999999</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>156.30500000000001</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>178.41800000000001</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>192.63300000000001</v>
+      </c>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D4" s="10">
         <v>17.585000000000001</v>
@@ -14006,51 +13882,66 @@
       <c r="F4" s="10">
         <v>22.835999999999999</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="140">
         <v>22.812000000000001</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="H4" s="15">
+        <v>25.353000000000002</v>
+      </c>
+      <c r="M4" s="10">
+        <v>4.9370000000000003</v>
+      </c>
+      <c r="N4" s="10">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="O4" s="10">
+        <v>5.8490000000000002</v>
+      </c>
       <c r="P4" s="10">
-        <v>4.9370000000000003</v>
+        <f>F4-O4-N4-M4</f>
+        <v>7.2869999999999981</v>
       </c>
       <c r="Q4" s="10">
-        <v>4.7629999999999999</v>
+        <v>6.3819999999999997</v>
       </c>
       <c r="R4" s="10">
-        <v>5.8490000000000002</v>
+        <v>4.66</v>
       </c>
       <c r="S4" s="10">
-        <f>F4-R4-Q4-P4</f>
-        <v>7.2869999999999981</v>
+        <v>6.5419999999999998</v>
       </c>
       <c r="T4" s="10">
-        <v>6.3819999999999997</v>
+        <f>G4-S4-R4-Q4</f>
+        <v>5.2280000000000033</v>
       </c>
       <c r="U4" s="10">
-        <v>4.66</v>
-      </c>
-      <c r="V4" s="10">
-        <v>6.5419999999999998</v>
+        <v>4.1680000000000001</v>
+      </c>
+      <c r="V4" s="140">
+        <v>4.4470000000000001</v>
       </c>
       <c r="W4" s="10">
-        <f>G4-V4-U4-T4</f>
-        <v>5.2280000000000033</v>
+        <v>6.86</v>
       </c>
       <c r="X4" s="10">
-        <v>4.1680000000000001</v>
-      </c>
-      <c r="Y4" s="15">
-        <v>4.4470000000000001</v>
-      </c>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f>H4-W4-V4-U4</f>
+        <v>9.8780000000000037</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>5.8840000000000003</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>6.3490000000000002</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>6.3029999999999999</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+    </row>
+    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11">
@@ -14065,95 +13956,107 @@
         <f>SUM(F3:F4)</f>
         <v>362.05</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="141">
         <f>SUM(G3:G4)</f>
         <v>471.85700000000003</v>
       </c>
-      <c r="H5" s="43">
-        <v>596.79</v>
+      <c r="H5" s="14">
+        <f>SUM(H3:H4)</f>
+        <v>606.3069999999999</v>
       </c>
       <c r="I5" s="43">
-        <v>707.48</v>
-      </c>
-      <c r="L5" s="145">
-        <f t="shared" ref="L5:X5" si="0">SUM(L3:L4)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="145">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="145">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="145">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="145">
-        <f t="shared" si="0"/>
+        <v>776.7</v>
+      </c>
+      <c r="J5" s="43">
+        <v>933.74</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" ref="M5:U5" si="0">SUM(M3:M4)</f>
         <v>77.057999999999993</v>
       </c>
-      <c r="Q5" s="145">
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>82.87</v>
       </c>
-      <c r="R5" s="145">
+      <c r="O5" s="11">
         <f t="shared" si="0"/>
         <v>92.04</v>
       </c>
-      <c r="S5" s="145">
+      <c r="P5" s="11">
         <f t="shared" si="0"/>
         <v>110.08199999999999</v>
       </c>
-      <c r="T5" s="145">
+      <c r="Q5" s="11">
         <f t="shared" si="0"/>
         <v>119.17200000000001</v>
       </c>
-      <c r="U5" s="145">
+      <c r="R5" s="11">
         <f t="shared" si="0"/>
         <v>106.44499999999999</v>
       </c>
-      <c r="V5" s="145">
+      <c r="S5" s="11">
         <f t="shared" si="0"/>
         <v>110.429</v>
       </c>
-      <c r="W5" s="145">
+      <c r="T5" s="11">
         <f t="shared" si="0"/>
         <v>135.81100000000004</v>
       </c>
-      <c r="X5" s="145">
+      <c r="U5" s="11">
         <f t="shared" si="0"/>
         <v>147.929</v>
       </c>
-      <c r="Y5" s="14">
-        <f>SUM(Y3:Y4)</f>
+      <c r="V5" s="141">
+        <f>SUM(V3:V4)</f>
         <v>147.38800000000001</v>
       </c>
-      <c r="Z5" s="40">
-        <v>144.71</v>
-      </c>
-      <c r="AA5" s="40">
-        <v>156.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W5" s="141">
+        <f t="shared" ref="W5:AC5" si="1">SUM(W3:W4)</f>
+        <v>145.00200000000001</v>
+      </c>
+      <c r="X5" s="141">
+        <f t="shared" si="1"/>
+        <v>165.988</v>
+      </c>
+      <c r="Y5" s="141">
+        <f t="shared" si="1"/>
+        <v>162.18900000000002</v>
+      </c>
+      <c r="Z5" s="141">
+        <f t="shared" si="1"/>
+        <v>184.767</v>
+      </c>
+      <c r="AA5" s="14">
+        <f t="shared" si="1"/>
+        <v>198.93600000000001</v>
+      </c>
+      <c r="AB5" s="141">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="141">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="42">
+      <c r="G6" s="140"/>
+      <c r="H6" s="137">
         <v>596.79</v>
       </c>
       <c r="I6" s="42">
-        <v>707.48</v>
-      </c>
-      <c r="L6" s="40"/>
+        <v>776.7</v>
+      </c>
+      <c r="J6" s="42">
+        <v>933.74</v>
+      </c>
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
@@ -14163,20 +14066,26 @@
       <c r="S6" s="40"/>
       <c r="T6" s="40"/>
       <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="40">
+      <c r="V6" s="148"/>
+      <c r="W6" s="40">
         <v>144.71</v>
       </c>
-      <c r="AA6" s="40">
+      <c r="X6" s="40">
         <v>156.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="40">
+        <v>230.86</v>
+      </c>
+      <c r="AC6" s="40">
+        <v>217.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11">
@@ -14188,53 +14097,68 @@
       <c r="F7" s="11">
         <v>252.60599999999999</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="141">
         <v>309.53100000000001</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="14">
+        <v>376.38099999999997</v>
+      </c>
       <c r="I7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="M7" s="11">
+        <v>55.357999999999997</v>
+      </c>
+      <c r="N7" s="11">
+        <v>57.930999999999997</v>
+      </c>
+      <c r="O7" s="11">
+        <v>62.548999999999999</v>
+      </c>
       <c r="P7" s="11">
-        <v>55.357999999999997</v>
+        <f>F7-O7-N7-M7</f>
+        <v>76.767999999999972</v>
       </c>
       <c r="Q7" s="11">
-        <v>57.930999999999997</v>
+        <v>76.504000000000005</v>
       </c>
       <c r="R7" s="11">
-        <v>62.548999999999999</v>
+        <v>68.644999999999996</v>
       </c>
       <c r="S7" s="11">
-        <f t="shared" ref="S7:S9" si="1">F7-R7-Q7-P7</f>
-        <v>76.767999999999972</v>
+        <v>73.763999999999996</v>
       </c>
       <c r="T7" s="11">
-        <v>76.504000000000005</v>
+        <f>G7-S7-R7-Q7</f>
+        <v>90.618000000000009</v>
       </c>
       <c r="U7" s="11">
-        <v>68.644999999999996</v>
-      </c>
-      <c r="V7" s="11">
-        <v>73.763999999999996</v>
+        <v>89.031999999999996</v>
+      </c>
+      <c r="V7" s="141">
+        <v>89.71</v>
       </c>
       <c r="W7" s="11">
-        <f>G7-V7-U7-T7</f>
-        <v>90.618000000000009</v>
-      </c>
-      <c r="X7" s="11">
-        <v>89.031999999999996</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>89.71</v>
-      </c>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>91.525999999999996</v>
+      </c>
+      <c r="X7" s="10">
+        <f t="shared" ref="X7:X9" si="2">H7-W7-V7-U7</f>
+        <v>106.11299999999999</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>99.676000000000002</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>112.985</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>123.974</v>
+      </c>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
@@ -14246,53 +14170,68 @@
       <c r="F8" s="10">
         <v>77.236000000000004</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="140">
         <v>101.72799999999999</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="116">
+        <v>133.93899999999999</v>
+      </c>
       <c r="I8" s="40"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="J8" s="40"/>
+      <c r="M8" s="10">
+        <v>17.623999999999999</v>
+      </c>
+      <c r="N8" s="10">
+        <v>17.007000000000001</v>
+      </c>
+      <c r="O8" s="10">
+        <v>20.561</v>
+      </c>
       <c r="P8" s="10">
-        <v>17.623999999999999</v>
+        <f>F8-O8-N8-M8</f>
+        <v>22.044000000000008</v>
       </c>
       <c r="Q8" s="10">
-        <v>17.007000000000001</v>
+        <v>23.946000000000002</v>
       </c>
       <c r="R8" s="10">
-        <v>20.561</v>
+        <v>23.908000000000001</v>
       </c>
       <c r="S8" s="10">
-        <f t="shared" si="1"/>
-        <v>22.044000000000008</v>
+        <v>25.081</v>
       </c>
       <c r="T8" s="10">
-        <v>23.946000000000002</v>
+        <f>G8-S8-R8-Q8</f>
+        <v>28.792999999999989</v>
       </c>
       <c r="U8" s="10">
-        <v>23.908000000000001</v>
-      </c>
-      <c r="V8" s="10">
-        <v>25.081</v>
+        <v>27.132000000000001</v>
+      </c>
+      <c r="V8" s="140">
+        <v>33.335999999999999</v>
       </c>
       <c r="W8" s="10">
-        <f>G8-V8-U8-T8</f>
-        <v>28.792999999999989</v>
+        <v>36.101999999999997</v>
       </c>
       <c r="X8" s="10">
-        <v>27.132000000000001</v>
-      </c>
-      <c r="Y8" s="15">
-        <v>33.335999999999999</v>
-      </c>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>37.368999999999986</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>31.908999999999999</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>38.987000000000002</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>44.393999999999998</v>
+      </c>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10">
@@ -14304,152 +14243,166 @@
       <c r="F9" s="10">
         <v>30.103999999999999</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="140">
         <v>27.344000000000001</v>
       </c>
-      <c r="H9" s="40"/>
+      <c r="H9" s="116">
+        <v>32.435000000000002</v>
+      </c>
       <c r="I9" s="40"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="J9" s="40"/>
+      <c r="M9" s="10">
+        <v>8.1620000000000008</v>
+      </c>
+      <c r="N9" s="10">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="O9" s="10">
+        <v>6.9059999999999997</v>
+      </c>
       <c r="P9" s="10">
-        <v>8.1620000000000008</v>
+        <f>F9-O9-N9-M9</f>
+        <v>7.8249999999999993</v>
       </c>
       <c r="Q9" s="10">
-        <v>7.2110000000000003</v>
+        <v>7.8259999999999996</v>
       </c>
       <c r="R9" s="10">
-        <v>6.9059999999999997</v>
+        <v>5.8529999999999998</v>
       </c>
       <c r="S9" s="10">
-        <f t="shared" si="1"/>
-        <v>7.8249999999999993</v>
+        <v>6.3550000000000004</v>
       </c>
       <c r="T9" s="10">
-        <v>7.8259999999999996</v>
+        <f>G9-S9-R9-Q9</f>
+        <v>7.3100000000000014</v>
       </c>
       <c r="U9" s="10">
-        <v>5.8529999999999998</v>
-      </c>
-      <c r="V9" s="10">
-        <v>6.3550000000000004</v>
+        <v>7.5960000000000001</v>
+      </c>
+      <c r="V9" s="140">
+        <v>7.2030000000000003</v>
       </c>
       <c r="W9" s="10">
-        <f>G9-V9-U9-T9</f>
-        <v>7.3100000000000014</v>
+        <v>8.1340000000000003</v>
       </c>
       <c r="X9" s="10">
-        <v>7.5960000000000001</v>
-      </c>
-      <c r="Y9" s="15">
-        <v>7.2030000000000003</v>
-      </c>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-    </row>
-    <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>9.5020000000000024</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>8.8350000000000009</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>9.1690000000000005</v>
+      </c>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+    </row>
+    <row r="10" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="11">
-        <f>C5-SUM(C7:C9)</f>
+        <f t="shared" ref="C10:I10" si="3">C5-SUM(C7:C9)</f>
         <v>0</v>
       </c>
       <c r="D10" s="11">
-        <f>D5-SUM(D7:D9)</f>
+        <f t="shared" si="3"/>
         <v>12.22799999999998</v>
       </c>
       <c r="E10" s="11">
-        <f>E5-SUM(E7:E9)</f>
+        <f t="shared" si="3"/>
         <v>5.2000000000020918E-2</v>
       </c>
       <c r="F10" s="11">
-        <f>F5-SUM(F7:F9)</f>
+        <f t="shared" si="3"/>
         <v>2.1040000000000418</v>
       </c>
-      <c r="G10" s="14">
-        <f>G5-SUM(G7:G9)</f>
+      <c r="G10" s="141">
+        <f t="shared" si="3"/>
         <v>33.254000000000019</v>
       </c>
-      <c r="H10" s="11">
-        <f>H5-SUM(H7:H9)</f>
-        <v>596.79</v>
+      <c r="H10" s="14">
+        <f t="shared" si="3"/>
+        <v>63.552000000000021</v>
       </c>
       <c r="I10" s="11">
-        <f>I5-SUM(I7:I9)</f>
-        <v>707.48</v>
+        <f t="shared" si="3"/>
+        <v>776.7</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="11">
-        <f>L5-SUM(L7:L9)</f>
-        <v>0</v>
-      </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="11">
-        <f>M5-SUM(M7:M9)</f>
-        <v>0</v>
+        <f t="shared" ref="M10:AA10" si="4">M5-SUM(M7:M9)</f>
+        <v>-4.0860000000000127</v>
       </c>
       <c r="N10" s="11">
-        <f>N5-SUM(N7:N9)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.72100000000000364</v>
       </c>
       <c r="O10" s="11">
-        <f>O5-SUM(O7:O9)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.0240000000000009</v>
       </c>
       <c r="P10" s="11">
-        <f>P5-SUM(P7:P9)</f>
-        <v>-4.0860000000000127</v>
+        <f t="shared" si="4"/>
+        <v>3.4450000000000074</v>
       </c>
       <c r="Q10" s="11">
-        <f>Q5-SUM(Q7:Q9)</f>
-        <v>0.72100000000000364</v>
+        <f t="shared" si="4"/>
+        <v>10.896000000000015</v>
       </c>
       <c r="R10" s="11">
-        <f>R5-SUM(R7:R9)</f>
-        <v>2.0240000000000009</v>
+        <f t="shared" si="4"/>
+        <v>8.0390000000000015</v>
       </c>
       <c r="S10" s="11">
-        <f>S5-SUM(S7:S9)</f>
-        <v>3.4450000000000074</v>
+        <f t="shared" si="4"/>
+        <v>5.2289999999999992</v>
       </c>
       <c r="T10" s="11">
-        <f>T5-SUM(T7:T9)</f>
-        <v>10.896000000000015</v>
+        <f t="shared" si="4"/>
+        <v>9.0900000000000318</v>
       </c>
       <c r="U10" s="11">
-        <f>U5-SUM(U7:U9)</f>
-        <v>8.0390000000000015</v>
-      </c>
-      <c r="V10" s="11">
-        <f>V5-SUM(V7:V9)</f>
-        <v>5.2289999999999992</v>
+        <f t="shared" si="4"/>
+        <v>24.168999999999997</v>
+      </c>
+      <c r="V10" s="141">
+        <f t="shared" si="4"/>
+        <v>17.13900000000001</v>
       </c>
       <c r="W10" s="11">
-        <f>W5-SUM(W7:W9)</f>
-        <v>9.0900000000000318</v>
+        <f t="shared" si="4"/>
+        <v>9.2400000000000091</v>
       </c>
       <c r="X10" s="11">
-        <f>X5-SUM(X7:X9)</f>
-        <v>24.168999999999997</v>
-      </c>
-      <c r="Y10" s="14">
-        <f>Y5-SUM(Y7:Y9)</f>
-        <v>17.13900000000001</v>
+        <f t="shared" si="4"/>
+        <v>13.004000000000019</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="4"/>
+        <v>21.769000000000005</v>
       </c>
       <c r="Z10" s="11">
-        <f>Z5-SUM(Z7:Z9)</f>
-        <v>144.71</v>
+        <f t="shared" si="4"/>
+        <v>23.794999999999987</v>
       </c>
       <c r="AA10" s="11">
-        <f>AA5-SUM(AA7:AA9)</f>
-        <v>156.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>21.399000000000001</v>
+      </c>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10">
@@ -14461,53 +14414,68 @@
       <c r="F11" s="10">
         <v>-0.114</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="140">
         <v>-0.78200000000000003</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="116">
+        <v>-1.01</v>
+      </c>
       <c r="I11" s="40"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="J11" s="40"/>
+      <c r="M11" s="10">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="N11" s="10">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-1.2E-2</v>
+      </c>
       <c r="P11" s="10">
-        <v>-8.0000000000000002E-3</v>
+        <f>F11-O11-N11-M11</f>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="Q11" s="10">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="R11" s="10">
-        <v>-1.2E-2</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="S11" s="10">
-        <f>F11-R11-Q11-P11</f>
-        <v>-8.6999999999999994E-2</v>
+        <v>-0.23799999999999999</v>
       </c>
       <c r="T11" s="10">
-        <v>-0.13900000000000001</v>
+        <f>G11-S11-R11-Q11</f>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="U11" s="10">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="V11" s="10">
-        <v>-0.23799999999999999</v>
+        <v>-0.255</v>
+      </c>
+      <c r="V11" s="140">
+        <v>-0.25700000000000001</v>
       </c>
       <c r="W11" s="10">
-        <f>G11-V11-U11-T11</f>
-        <v>-0.26900000000000002</v>
+        <v>-0.25900000000000001</v>
       </c>
       <c r="X11" s="10">
-        <v>-0.255</v>
-      </c>
-      <c r="Y11" s="15">
-        <v>-0.25700000000000001</v>
-      </c>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="X11:X13" si="5">H11-W11-V11-U11</f>
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>-0.218</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
@@ -14519,53 +14487,68 @@
       <c r="F12" s="10">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="140">
         <v>2.5419999999999998</v>
       </c>
-      <c r="H12" s="40"/>
+      <c r="H12" s="116">
+        <v>5.2460000000000004</v>
+      </c>
       <c r="I12" s="40"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="J12" s="40"/>
+      <c r="M12" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0.312</v>
+      </c>
       <c r="P12" s="10">
-        <v>0.13</v>
+        <f>F12-O12-N12-M12</f>
+        <v>0.33999999999999997</v>
       </c>
       <c r="Q12" s="10">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="R12" s="10">
-        <v>0.312</v>
+        <v>0.45</v>
       </c>
       <c r="S12" s="10">
-        <f>F12-R12-Q12-P12</f>
-        <v>0.33999999999999997</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="T12" s="10">
-        <v>0.34</v>
+        <f>G12-S12-R12-Q12</f>
+        <v>1.0449999999999999</v>
       </c>
       <c r="U12" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="V12" s="10">
-        <v>0.70699999999999996</v>
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="V12" s="140">
+        <v>1.3160000000000001</v>
       </c>
       <c r="W12" s="10">
-        <f>G12-V12-U12-T12</f>
-        <v>1.0449999999999999</v>
+        <v>1.407</v>
       </c>
       <c r="X12" s="10">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>1.3160000000000001</v>
-      </c>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1.4350000000000005</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>1.27</v>
+      </c>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
@@ -14577,53 +14560,68 @@
       <c r="F13" s="10">
         <v>-0.151</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="140">
         <v>-2.8130000000000002</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="116">
+        <v>-0.25</v>
+      </c>
       <c r="I13" s="40"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="J13" s="40"/>
+      <c r="M13" s="10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="N13" s="10">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-0.14799999999999999</v>
+      </c>
       <c r="P13" s="10">
-        <v>4.9000000000000002E-2</v>
+        <f>F13-O13-N13-M13</f>
+        <v>0</v>
       </c>
       <c r="Q13" s="10">
-        <v>-5.1999999999999998E-2</v>
+        <v>-1.425</v>
       </c>
       <c r="R13" s="10">
-        <v>-0.14799999999999999</v>
+        <v>-0.441</v>
       </c>
       <c r="S13" s="10">
-        <f>F13-R13-Q13-P13</f>
-        <v>0</v>
+        <v>-0.64200000000000002</v>
       </c>
       <c r="T13" s="10">
-        <v>-1.425</v>
+        <f>G13-S13-R13-Q13</f>
+        <v>-0.30500000000000016</v>
       </c>
       <c r="U13" s="10">
-        <v>-0.441</v>
-      </c>
-      <c r="V13" s="10">
-        <v>-0.64200000000000002</v>
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="V13" s="140">
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="W13" s="10">
-        <f>G13-V13-U13-T13</f>
-        <v>-0.30500000000000016</v>
+        <v>-0.06</v>
       </c>
       <c r="X13" s="10">
-        <v>-0.27700000000000002</v>
-      </c>
-      <c r="Y13" s="15">
-        <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0.17400000000000002</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>-0.40400000000000003</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>-0.378</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+    </row>
+    <row r="14" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C14" s="11">
         <f>C10+SUM(C11:C13)</f>
@@ -14634,93 +14632,92 @@
         <v>11.649999999999981</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" ref="E14:I14" si="2">E10+SUM(E11:E13)</f>
+        <f t="shared" ref="E14:I14" si="6">E10+SUM(E11:E13)</f>
         <v>0.35400000000002091</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.8310000000000417</v>
       </c>
-      <c r="G14" s="14">
-        <f t="shared" si="2"/>
+      <c r="G14" s="141">
+        <f t="shared" si="6"/>
         <v>32.201000000000022</v>
       </c>
-      <c r="H14" s="11">
-        <f t="shared" si="2"/>
-        <v>596.79</v>
+      <c r="H14" s="14">
+        <f t="shared" si="6"/>
+        <v>67.538000000000025</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="2"/>
-        <v>707.48</v>
-      </c>
-      <c r="L14" s="11">
-        <f t="shared" ref="L14" si="3">L10+SUM(L11:L13)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>776.7</v>
+      </c>
+      <c r="J14" s="11"/>
       <c r="M14" s="11">
-        <f t="shared" ref="M14" si="4">M10+SUM(M11:M13)</f>
-        <v>0</v>
+        <f t="shared" ref="M14" si="7">M10+SUM(M11:M13)</f>
+        <v>-3.9150000000000129</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" ref="N14" si="5">N10+SUM(N11:N13)</f>
-        <v>0</v>
+        <f t="shared" ref="N14" si="8">N10+SUM(N11:N13)</f>
+        <v>0.87200000000000366</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" ref="O14" si="6">O10+SUM(O11:O13)</f>
-        <v>0</v>
+        <f t="shared" ref="O14" si="9">O10+SUM(O11:O13)</f>
+        <v>2.176000000000001</v>
       </c>
       <c r="P14" s="11">
-        <f t="shared" ref="P14" si="7">P10+SUM(P11:P13)</f>
-        <v>-3.9150000000000129</v>
+        <f t="shared" ref="P14" si="10">P10+SUM(P11:P13)</f>
+        <v>3.6980000000000075</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" ref="Q14" si="8">Q10+SUM(Q11:Q13)</f>
-        <v>0.87200000000000366</v>
+        <f t="shared" ref="Q14" si="11">Q10+SUM(Q11:Q13)</f>
+        <v>9.6720000000000148</v>
       </c>
       <c r="R14" s="11">
-        <f t="shared" ref="R14" si="9">R10+SUM(R11:R13)</f>
-        <v>2.176000000000001</v>
+        <f t="shared" ref="R14" si="12">R10+SUM(R11:R13)</f>
+        <v>7.9120000000000017</v>
       </c>
       <c r="S14" s="11">
-        <f t="shared" ref="S14" si="10">S10+SUM(S11:S13)</f>
-        <v>3.6980000000000075</v>
+        <f t="shared" ref="S14:AA14" si="13">S10+SUM(S11:S13)</f>
+        <v>5.0559999999999992</v>
       </c>
       <c r="T14" s="11">
-        <f t="shared" ref="T14" si="11">T10+SUM(T11:T13)</f>
-        <v>9.6720000000000148</v>
+        <f t="shared" si="13"/>
+        <v>9.5610000000000319</v>
       </c>
       <c r="U14" s="11">
-        <f t="shared" ref="U14" si="12">U10+SUM(U11:U13)</f>
-        <v>7.9120000000000017</v>
-      </c>
-      <c r="V14" s="11">
-        <f t="shared" ref="V14:AA14" si="13">V10+SUM(V11:V13)</f>
-        <v>5.0559999999999992</v>
+        <f t="shared" si="13"/>
+        <v>24.724999999999998</v>
+      </c>
+      <c r="V14" s="141">
+        <f t="shared" si="13"/>
+        <v>18.111000000000011</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="13"/>
-        <v>9.5610000000000319</v>
+        <v>10.32800000000001</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="13"/>
-        <v>24.724999999999998</v>
-      </c>
-      <c r="Y14" s="14">
+        <v>14.37400000000002</v>
+      </c>
+      <c r="Y14" s="11">
         <f t="shared" si="13"/>
-        <v>18.111000000000011</v>
+        <v>22.342000000000006</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="13"/>
-        <v>144.71</v>
+        <v>24.530999999999988</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="13"/>
-        <v>156.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>21.969000000000001</v>
+      </c>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10">
@@ -14732,53 +14729,68 @@
       <c r="F15" s="10">
         <v>1.601</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="140">
         <v>6.6349999999999998</v>
       </c>
-      <c r="H15" s="40"/>
+      <c r="H15" s="116">
+        <v>14.15</v>
+      </c>
       <c r="I15" s="40"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="J15" s="40"/>
+      <c r="M15" s="10">
+        <v>-2.3769999999999998</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0.68</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1.4650000000000001</v>
+      </c>
       <c r="P15" s="10">
-        <v>-2.3769999999999998</v>
+        <f>F15-O15-N15-M15</f>
+        <v>1.8329999999999997</v>
       </c>
       <c r="Q15" s="10">
-        <v>0.68</v>
+        <v>2.5219999999999998</v>
       </c>
       <c r="R15" s="10">
-        <v>1.4650000000000001</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="S15" s="10">
-        <f>F15-R15-Q15-P15</f>
-        <v>1.8329999999999997</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="T15" s="10">
-        <v>2.5219999999999998</v>
+        <f>G15-S15-R15-Q15</f>
+        <v>2.3509999999999995</v>
       </c>
       <c r="U15" s="10">
-        <v>1.2290000000000001</v>
-      </c>
-      <c r="V15" s="10">
-        <v>0.53300000000000003</v>
+        <v>5.702</v>
+      </c>
+      <c r="V15" s="140">
+        <v>1.772</v>
       </c>
       <c r="W15" s="10">
-        <f>G15-V15-U15-T15</f>
-        <v>2.3509999999999995</v>
+        <v>2.9359999999999999</v>
       </c>
       <c r="X15" s="10">
-        <v>5.702</v>
-      </c>
-      <c r="Y15" s="15">
-        <v>1.772</v>
-      </c>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="X15:X16" si="14">H15-W15-V15-U15</f>
+        <v>3.74</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>5.4409999999999998</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>7.8929999999999998</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>5.55</v>
+      </c>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10">
@@ -14790,136 +14802,143 @@
       <c r="F16" s="10">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="140">
         <v>0</v>
       </c>
-      <c r="H16" s="40"/>
+      <c r="H16" s="116"/>
       <c r="I16" s="40"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="J16" s="40"/>
+      <c r="M16" s="10">
+        <v>-2E-3</v>
+      </c>
+      <c r="N16" s="10">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-1.2E-2</v>
+      </c>
       <c r="P16" s="10">
-        <v>-2E-3</v>
+        <f>F16-O16-N16-M16</f>
+        <v>0</v>
       </c>
       <c r="Q16" s="10">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="R16" s="10">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="S16" s="10">
-        <f>F16-R16-Q16-P16</f>
         <v>0</v>
       </c>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
       <c r="T16" s="10">
+        <f>G16-S16-R16-Q16</f>
         <v>0</v>
       </c>
       <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10">
-        <f>G16-V16-U16-T16</f>
+      <c r="V16" s="140"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="15"/>
+      <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-    </row>
-    <row r="17" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+    </row>
+    <row r="17" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11">
         <f>C14-SUM(C15:C16)</f>
         <v>0</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" ref="D17:G17" si="14">D14-SUM(D15:D16)</f>
+        <f t="shared" ref="D17:H17" si="15">D14-SUM(D15:D16)</f>
         <v>8.7959999999999816</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.4290000000000211</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2510000000000416</v>
       </c>
-      <c r="G17" s="14">
-        <f t="shared" si="14"/>
+      <c r="G17" s="141">
+        <f t="shared" si="15"/>
         <v>25.566000000000024</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="L17" s="11">
-        <f t="shared" ref="L17" si="15">L14-SUM(L15:L16)</f>
-        <v>0</v>
-      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="15"/>
+        <v>53.388000000000027</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
       <c r="M17" s="11">
         <f t="shared" ref="M17" si="16">M14-SUM(M15:M16)</f>
-        <v>0</v>
+        <v>-1.5360000000000134</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" ref="N17" si="17">N14-SUM(N15:N16)</f>
-        <v>0</v>
+        <v>0.19900000000000362</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" ref="O17" si="18">O14-SUM(O15:O16)</f>
-        <v>0</v>
+        <v>0.72300000000000098</v>
       </c>
       <c r="P17" s="11">
         <f t="shared" ref="P17" si="19">P14-SUM(P15:P16)</f>
-        <v>-1.5360000000000134</v>
+        <v>1.8650000000000078</v>
       </c>
       <c r="Q17" s="11">
         <f t="shared" ref="Q17" si="20">Q14-SUM(Q15:Q16)</f>
-        <v>0.19900000000000362</v>
+        <v>7.1500000000000146</v>
       </c>
       <c r="R17" s="11">
         <f t="shared" ref="R17" si="21">R14-SUM(R15:R16)</f>
-        <v>0.72300000000000098</v>
+        <v>6.6830000000000016</v>
       </c>
       <c r="S17" s="11">
-        <f t="shared" ref="S17" si="22">S14-SUM(S15:S16)</f>
-        <v>1.8650000000000078</v>
+        <f t="shared" ref="S17:AA17" si="22">S14-SUM(S15:S16)</f>
+        <v>4.5229999999999988</v>
       </c>
       <c r="T17" s="11">
-        <f t="shared" ref="T17" si="23">T14-SUM(T15:T16)</f>
-        <v>7.1500000000000146</v>
+        <f t="shared" si="22"/>
+        <v>7.2100000000000328</v>
       </c>
       <c r="U17" s="11">
-        <f t="shared" ref="U17" si="24">U14-SUM(U15:U16)</f>
-        <v>6.6830000000000016</v>
-      </c>
-      <c r="V17" s="11">
-        <f t="shared" ref="V17:AA17" si="25">V14-SUM(V15:V16)</f>
-        <v>4.5229999999999988</v>
+        <f t="shared" si="22"/>
+        <v>19.022999999999996</v>
+      </c>
+      <c r="V17" s="141">
+        <f t="shared" si="22"/>
+        <v>16.339000000000013</v>
       </c>
       <c r="W17" s="11">
-        <f t="shared" si="25"/>
-        <v>7.2100000000000328</v>
+        <f t="shared" si="22"/>
+        <v>7.3920000000000101</v>
       </c>
       <c r="X17" s="11">
-        <f t="shared" si="25"/>
-        <v>19.022999999999996</v>
-      </c>
-      <c r="Y17" s="14">
-        <f t="shared" si="25"/>
-        <v>16.339000000000013</v>
+        <f t="shared" si="22"/>
+        <v>10.63400000000002</v>
+      </c>
+      <c r="Y17" s="11">
+        <f t="shared" si="22"/>
+        <v>16.901000000000007</v>
       </c>
       <c r="Z17" s="11">
-        <f t="shared" si="25"/>
-        <v>144.71</v>
+        <f t="shared" si="22"/>
+        <v>16.637999999999987</v>
       </c>
       <c r="AA17" s="11">
-        <f t="shared" si="25"/>
-        <v>156.75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>16.419</v>
+      </c>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -14931,51 +14950,65 @@
       <c r="F18" s="10">
         <v>43.469586</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="140">
         <v>43.312835999999997</v>
       </c>
-      <c r="H18" s="40"/>
+      <c r="H18" s="116">
+        <v>45.127127999999999</v>
+      </c>
       <c r="I18" s="40"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="J18" s="40"/>
+      <c r="M18" s="10">
+        <v>40.532778999999998</v>
+      </c>
+      <c r="N18" s="10">
+        <v>42.694766999999999</v>
+      </c>
+      <c r="O18" s="10">
+        <v>42.879818</v>
+      </c>
       <c r="P18" s="10">
-        <v>40.532778999999998</v>
+        <v>42.879818</v>
       </c>
       <c r="Q18" s="10">
-        <v>42.694766999999999</v>
+        <v>43.398336</v>
       </c>
       <c r="R18" s="10">
-        <v>42.879818</v>
+        <v>43.292261000000003</v>
       </c>
       <c r="S18" s="10">
-        <v>42.879818</v>
+        <v>43.135579</v>
       </c>
       <c r="T18" s="10">
-        <v>43.398336</v>
+        <v>43.135579</v>
       </c>
       <c r="U18" s="10">
-        <v>43.292261000000003</v>
-      </c>
-      <c r="V18" s="10">
-        <v>43.135579</v>
+        <v>43.845951999999997</v>
+      </c>
+      <c r="V18" s="140">
+        <v>45.248792000000002</v>
       </c>
       <c r="W18" s="10">
-        <v>43.135579</v>
+        <v>45.463861999999999</v>
       </c>
       <c r="X18" s="10">
-        <v>43.845951999999997</v>
-      </c>
-      <c r="Y18" s="15">
-        <v>45.248792000000002</v>
-      </c>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-    </row>
-    <row r="19" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45.463861999999999</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>45.804924</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>45.804158000000001</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>46.205736999999999</v>
+      </c>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+    </row>
+    <row r="19" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="e">
         <f>C17/C18</f>
@@ -14993,118 +15026,130 @@
         <f>F17/F18</f>
         <v>2.8778741992160718E-2</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="142">
         <f>G17/G18</f>
         <v>0.59026381925210403</v>
       </c>
-      <c r="H19" s="54">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="I19" s="55">
-        <v>1.21</v>
-      </c>
-      <c r="L19" s="2" t="e">
-        <f>L17/L18</f>
+      <c r="H19" s="48">
+        <f>H17/H18</f>
+        <v>1.1830577828928095</v>
+      </c>
+      <c r="I19" s="49">
+        <v>1.48</v>
+      </c>
+      <c r="J19" s="49">
+        <v>1.69</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" ref="M19:S19" si="23">M17/M18</f>
+        <v>-3.7895255097115679E-2</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="23"/>
+        <v>4.6609927628836487E-3</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="23"/>
+        <v>1.6861079027900749E-2</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="23"/>
+        <v>4.349365475385198E-2</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="23"/>
+        <v>0.164752860570507</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="23"/>
+        <v>0.15436939179499082</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="23"/>
+        <v>0.10485543731776496</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" ref="T19:AB19" si="24">T17/T18</f>
+        <v>0.16714740284348642</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="24"/>
+        <v>0.43385989201466074</v>
+      </c>
+      <c r="V19" s="143">
+        <f t="shared" si="24"/>
+        <v>0.36109251270177584</v>
+      </c>
+      <c r="W19" s="143">
+        <f t="shared" si="24"/>
+        <v>0.16259067476493771</v>
+      </c>
+      <c r="X19" s="143">
+        <f t="shared" si="24"/>
+        <v>0.23390005890832635</v>
+      </c>
+      <c r="Y19" s="143">
+        <f t="shared" si="24"/>
+        <v>0.36897779810747</v>
+      </c>
+      <c r="Z19" s="143">
+        <f t="shared" si="24"/>
+        <v>0.36324213186060506</v>
+      </c>
+      <c r="AA19" s="35">
+        <f t="shared" si="24"/>
+        <v>0.35534548447955716</v>
+      </c>
+      <c r="AB19" s="143" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="2" t="e">
-        <f t="shared" ref="M19:V19" si="26">M17/M18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="2" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="26"/>
-        <v>-3.7895255097115679E-2</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="26"/>
-        <v>4.6609927628836487E-3</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="26"/>
-        <v>1.6861079027900749E-2</v>
-      </c>
-      <c r="S19" s="2">
-        <f t="shared" si="26"/>
-        <v>4.349365475385198E-2</v>
-      </c>
-      <c r="T19" s="2">
-        <f t="shared" si="26"/>
-        <v>0.164752860570507</v>
-      </c>
-      <c r="U19" s="2">
-        <f t="shared" si="26"/>
-        <v>0.15436939179499082</v>
-      </c>
-      <c r="V19" s="2">
-        <f t="shared" si="26"/>
-        <v>0.10485543731776496</v>
-      </c>
-      <c r="W19" s="2">
-        <f t="shared" ref="W19:AA19" si="27">W17/W18</f>
-        <v>0.16714740284348642</v>
-      </c>
-      <c r="X19" s="2">
-        <f t="shared" si="27"/>
-        <v>0.43385989201466074</v>
-      </c>
-      <c r="Y19" s="35">
-        <f t="shared" si="27"/>
-        <v>0.36109251270177584</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="44">
+      <c r="G20" s="143"/>
+      <c r="H20" s="138">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I20" s="45">
-        <v>1.21</v>
-      </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="49">
+      <c r="I20" s="44">
+        <v>1.48</v>
+      </c>
+      <c r="J20" s="44">
+        <v>1.69</v>
+      </c>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="45">
         <v>0.13</v>
       </c>
-      <c r="AA20" s="49">
+      <c r="X20" s="45">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="21" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="e">
         <f>1-C7/C5</f>
@@ -15122,80 +15167,94 @@
         <f>1-F7/F5</f>
         <v>0.30228973898632794</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="39">
         <f>1-G7/G5</f>
         <v>0.34401524190591648</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="L21" s="3" t="e">
-        <f>1-L7/L5</f>
+      <c r="H21" s="6">
+        <f t="shared" ref="H21:J21" si="25">1-H7/H5</f>
+        <v>0.3792237265939532</v>
+      </c>
+      <c r="I21" s="39">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="39">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" ref="M21:X21" si="26">1-M7/M5</f>
+        <v>0.28160606296555835</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="26"/>
+        <v>0.30094123325690847</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="26"/>
+        <v>0.3204150369404607</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="26"/>
+        <v>0.30262894932868245</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="26"/>
+        <v>0.35803712281408384</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="26"/>
+        <v>0.35511296913899193</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="26"/>
+        <v>0.33202329098334682</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="26"/>
+        <v>0.33276391455773102</v>
+      </c>
+      <c r="U21" s="117">
+        <f t="shared" si="26"/>
+        <v>0.39814370407425181</v>
+      </c>
+      <c r="V21" s="150">
+        <f t="shared" si="26"/>
+        <v>0.39133443699622772</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" si="26"/>
+        <v>0.36879491317361146</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" si="26"/>
+        <v>0.36071884714557689</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" ref="Y21:AC21" si="27">1-Y7/Y5</f>
+        <v>0.38543304416452417</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="27"/>
+        <v>0.38850011095054848</v>
+      </c>
+      <c r="AA21" s="6">
+        <f t="shared" si="27"/>
+        <v>0.37681465395906222</v>
+      </c>
+      <c r="AB21" s="3" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="3" t="e">
-        <f>1-M7/M5</f>
+      <c r="AC21" s="3" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N21" s="3" t="e">
-        <f>1-N7/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="3" t="e">
-        <f>1-O7/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="3">
-        <f>1-P7/P5</f>
-        <v>0.28160606296555835</v>
-      </c>
-      <c r="Q21" s="3">
-        <f>1-Q7/Q5</f>
-        <v>0.30094123325690847</v>
-      </c>
-      <c r="R21" s="3">
-        <f>1-R7/R5</f>
-        <v>0.3204150369404607</v>
-      </c>
-      <c r="S21" s="3">
-        <f>1-S7/S5</f>
-        <v>0.30262894932868245</v>
-      </c>
-      <c r="T21" s="3">
-        <f>1-T7/T5</f>
-        <v>0.35803712281408384</v>
-      </c>
-      <c r="U21" s="3">
-        <f>1-U7/U5</f>
-        <v>0.35511296913899193</v>
-      </c>
-      <c r="V21" s="3">
-        <f>1-V7/V5</f>
-        <v>0.33202329098334682</v>
-      </c>
-      <c r="W21" s="3">
-        <f>1-W7/W5</f>
-        <v>0.33276391455773102</v>
-      </c>
-      <c r="X21" s="146">
-        <f>1-X7/X5</f>
-        <v>0.39814370407425181</v>
-      </c>
-      <c r="Y21" s="147">
-        <f>1-Y7/Y5</f>
-        <v>0.39133443699622772</v>
-      </c>
-      <c r="Z21" s="3">
-        <f>1-Z7/Z5</f>
-        <v>1</v>
-      </c>
-      <c r="AA21" s="3">
-        <f>1-AA7/AA5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="e">
         <f>C17/C5</f>
@@ -15213,86 +15272,94 @@
         <f>F17/F5</f>
         <v>3.4553238502970352E-3</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="144">
         <f>G17/G5</f>
         <v>5.4181669446463701E-2</v>
       </c>
-      <c r="H22" s="47">
-        <f>H17/H6</f>
+      <c r="H22" s="7">
+        <f t="shared" ref="H22:J22" si="28">H17/H5</f>
+        <v>8.805440148307711E-2</v>
+      </c>
+      <c r="I22" s="144">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="I22" s="47">
-        <f>I17/I6</f>
+      <c r="J22" s="144">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="L22" s="4" t="e">
-        <f>L17/L5</f>
+      <c r="M22" s="4">
+        <f t="shared" ref="M22:X22" si="29">M17/M5</f>
+        <v>-1.9933037452308826E-2</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="29"/>
+        <v>2.4013515144202199E-3</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="29"/>
+        <v>7.8552803129074422E-3</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="29"/>
+        <v>1.6941916026235061E-2</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="29"/>
+        <v>5.9997314805491336E-2</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="29"/>
+        <v>6.2783597162854074E-2</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="29"/>
+        <v>4.0958443887022418E-2</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="29"/>
+        <v>5.3088483259824543E-2</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="29"/>
+        <v>0.12859547485618097</v>
+      </c>
+      <c r="V22" s="144">
+        <f t="shared" si="29"/>
+        <v>0.11085705756235251</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="29"/>
+        <v>5.097860719162501E-2</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="29"/>
+        <v>6.4064872159433336E-2</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" ref="Y22:AC22" si="30">Y17/Y5</f>
+        <v>0.10420558730863379</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="30"/>
+        <v>9.0048547630258588E-2</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="30"/>
+        <v>8.2534081312582941E-2</v>
+      </c>
+      <c r="AB22" s="4" t="e">
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="4" t="e">
-        <f>M17/M5</f>
+      <c r="AC22" s="4" t="e">
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="4" t="e">
-        <f>N17/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="4" t="e">
-        <f>O17/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="4">
-        <f>P17/P5</f>
-        <v>-1.9933037452308826E-2</v>
-      </c>
-      <c r="Q22" s="4">
-        <f>Q17/Q5</f>
-        <v>2.4013515144202199E-3</v>
-      </c>
-      <c r="R22" s="4">
-        <f>R17/R5</f>
-        <v>7.8552803129074422E-3</v>
-      </c>
-      <c r="S22" s="4">
-        <f>S17/S5</f>
-        <v>1.6941916026235061E-2</v>
-      </c>
-      <c r="T22" s="4">
-        <f>T17/T5</f>
-        <v>5.9997314805491336E-2</v>
-      </c>
-      <c r="U22" s="4">
-        <f>U17/U5</f>
-        <v>6.2783597162854074E-2</v>
-      </c>
-      <c r="V22" s="4">
-        <f>V17/V5</f>
-        <v>4.0958443887022418E-2</v>
-      </c>
-      <c r="W22" s="4">
-        <f>W17/W5</f>
-        <v>5.3088483259824543E-2</v>
-      </c>
-      <c r="X22" s="4">
-        <f>X17/X5</f>
-        <v>0.12859547485618097</v>
-      </c>
-      <c r="Y22" s="7">
-        <f>Y17/Y5</f>
-        <v>0.11085705756235251</v>
-      </c>
-      <c r="Z22" s="4">
-        <f>Z17/Z5</f>
-        <v>1</v>
-      </c>
-      <c r="AA22" s="4">
-        <f>AA17/AA5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="e">
@@ -15307,62 +15374,82 @@
         <f>F5/E5-1</f>
         <v>0.38769111655378863</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="39">
         <f>G5/F5-1</f>
         <v>0.30329236293329664</v>
       </c>
-      <c r="H23" s="48">
-        <f>H6/G5-1</f>
-        <v>0.26476877528573262</v>
-      </c>
-      <c r="I23" s="48">
-        <f>I6/H6-1</f>
-        <v>0.18547562794282757</v>
-      </c>
-      <c r="L23" s="4"/>
+      <c r="H23" s="6">
+        <f t="shared" ref="H23:J23" si="31">H5/G5-1</f>
+        <v>0.28493802147684555</v>
+      </c>
+      <c r="I23" s="39">
+        <f t="shared" si="31"/>
+        <v>0.2810341955478004</v>
+      </c>
+      <c r="J23" s="39">
+        <f t="shared" si="31"/>
+        <v>0.20218874726406577</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="Q23" s="4">
+        <f t="shared" ref="Q23:X23" si="32">Q5/M5-1</f>
+        <v>0.5465233979599784</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="32"/>
+        <v>0.28448171835404845</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="32"/>
+        <v>0.19979356801390691</v>
+      </c>
       <c r="T23" s="4">
-        <f>T5/P5-1</f>
-        <v>0.5465233979599784</v>
+        <f t="shared" si="32"/>
+        <v>0.2337257680638074</v>
       </c>
       <c r="U23" s="4">
-        <f>U5/Q5-1</f>
-        <v>0.28448171835404845</v>
-      </c>
-      <c r="V23" s="4">
-        <f>V5/R5-1</f>
-        <v>0.19979356801390691</v>
+        <f t="shared" si="32"/>
+        <v>0.24130668277783363</v>
+      </c>
+      <c r="V23" s="151">
+        <f t="shared" si="32"/>
+        <v>0.38463995490628977</v>
       </c>
       <c r="W23" s="4">
-        <f>W5/S5-1</f>
-        <v>0.2337257680638074</v>
+        <f t="shared" si="32"/>
+        <v>0.31307899193146738</v>
       </c>
       <c r="X23" s="4">
-        <f>X5/T5-1</f>
-        <v>0.24130668277783363</v>
-      </c>
-      <c r="Y23" s="148">
-        <f>Y5/U5-1</f>
-        <v>0.38463995490628977</v>
+        <f t="shared" si="32"/>
+        <v>0.22219849643990508</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" ref="Y23" si="33">Y5/U5-1</f>
+        <v>9.6397596144096376E-2</v>
       </c>
       <c r="Z23" s="4">
-        <f>Z5/V5-1</f>
-        <v>0.31043475898541151</v>
-      </c>
-      <c r="AA23" s="4">
-        <f>AA5/W5-1</f>
-        <v>0.15417749666816349</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Z23" si="34">Z5/V5-1</f>
+        <v>0.25360952044942597</v>
+      </c>
+      <c r="AA23" s="7">
+        <f t="shared" ref="AA23" si="35">AA5/W5-1</f>
+        <v>0.37195349029668545</v>
+      </c>
+      <c r="AB23" s="4">
+        <f t="shared" ref="AB23" si="36">AB5/X5-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AC23" s="4">
+        <f t="shared" ref="AC23" si="37">AC5/Y5-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C24" s="4" t="e">
         <f>C8/C5</f>
@@ -15380,80 +15467,94 @@
         <f>F8/F5</f>
         <v>0.21332965060074577</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="144">
         <f>G8/G5</f>
         <v>0.21559074041499859</v>
       </c>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="L24" s="4" t="e">
-        <f>L8/L5</f>
+      <c r="H24" s="7">
+        <f t="shared" ref="H24:J24" si="38">H8/H5</f>
+        <v>0.22090953922682735</v>
+      </c>
+      <c r="I24" s="144">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="144">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" ref="M24:X24" si="39">M8/M5</f>
+        <v>0.22871084118456228</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="39"/>
+        <v>0.20522505128514543</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="39"/>
+        <v>0.22339200347674923</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="39"/>
+        <v>0.20025072218891379</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="39"/>
+        <v>0.20093646158493605</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="39"/>
+        <v>0.2246042557189159</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="39"/>
+        <v>0.22712331000009053</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="39"/>
+        <v>0.21200786386964224</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="39"/>
+        <v>0.18341231266350749</v>
+      </c>
+      <c r="V24" s="144">
+        <f t="shared" si="39"/>
+        <v>0.22617852199636332</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="39"/>
+        <v>0.24897587619481107</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="39"/>
+        <v>0.22513073234209693</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" ref="Y24:AC24" si="40">Y8/Y5</f>
+        <v>0.19673960626183029</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" si="40"/>
+        <v>0.21100629441404581</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="40"/>
+        <v>0.22315719628423211</v>
+      </c>
+      <c r="AB24" s="4" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="4" t="e">
-        <f>M8/M5</f>
+      <c r="AC24" s="4" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="4" t="e">
-        <f>N8/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="4" t="e">
-        <f>O8/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="4">
-        <f>P8/P5</f>
-        <v>0.22871084118456228</v>
-      </c>
-      <c r="Q24" s="4">
-        <f>Q8/Q5</f>
-        <v>0.20522505128514543</v>
-      </c>
-      <c r="R24" s="4">
-        <f>R8/R5</f>
-        <v>0.22339200347674923</v>
-      </c>
-      <c r="S24" s="4">
-        <f>S8/S5</f>
-        <v>0.20025072218891379</v>
-      </c>
-      <c r="T24" s="4">
-        <f>T8/T5</f>
-        <v>0.20093646158493605</v>
-      </c>
-      <c r="U24" s="4">
-        <f>U8/U5</f>
-        <v>0.2246042557189159</v>
-      </c>
-      <c r="V24" s="4">
-        <f>V8/V5</f>
-        <v>0.22712331000009053</v>
-      </c>
-      <c r="W24" s="4">
-        <f>W8/W5</f>
-        <v>0.21200786386964224</v>
-      </c>
-      <c r="X24" s="4">
-        <f>X8/X5</f>
-        <v>0.18341231266350749</v>
-      </c>
-      <c r="Y24" s="7">
-        <f>Y8/Y5</f>
-        <v>0.22617852199636332</v>
-      </c>
-      <c r="Z24" s="4">
-        <f>Z8/Z5</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="4">
-        <f>AA8/AA5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C25" s="4" t="e">
         <f>C9/C5</f>
@@ -15471,190 +15572,268 @@
         <f>F9/F5</f>
         <v>8.3148736362380876E-2</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="144">
         <f>G9/G5</f>
         <v>5.7949760202773294E-2</v>
       </c>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="L25" s="4" t="e">
-        <f>L9/L5</f>
+      <c r="H25" s="7">
+        <f t="shared" ref="H25:J25" si="41">H9/H5</f>
+        <v>5.3496001200711865E-2</v>
+      </c>
+      <c r="I25" s="144">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="144">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" ref="M25:X25" si="42">M9/M5</f>
+        <v>0.10592021594123908</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="42"/>
+        <v>8.7015807891878849E-2</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="42"/>
+        <v>7.5032594524119936E-2</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="42"/>
+        <v>7.1083374211951086E-2</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="42"/>
+        <v>6.5669788205283117E-2</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="42"/>
+        <v>5.4986143078585188E-2</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="42"/>
+        <v>5.7548288945838508E-2</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="42"/>
+        <v>5.3824800642068751E-2</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="42"/>
+        <v>5.1348957946041683E-2</v>
+      </c>
+      <c r="V25" s="144">
+        <f t="shared" si="42"/>
+        <v>4.8871007137623143E-2</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="42"/>
+        <v>5.6095777989269111E-2</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="42"/>
+        <v>5.7245102055570297E-2</v>
+      </c>
+      <c r="Y25" s="4">
+        <f t="shared" ref="Y25:AC25" si="43">Y9/Y5</f>
+        <v>5.4473484638292359E-2</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" si="43"/>
+        <v>4.8709996915033527E-2</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="43"/>
+        <v>4.6090199863272611E-2</v>
+      </c>
+      <c r="AB25" s="4" t="e">
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="4" t="e">
-        <f>M9/M5</f>
+      <c r="AC25" s="4" t="e">
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="4" t="e">
-        <f>N9/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="4" t="e">
-        <f>O9/O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="4">
-        <f>P9/P5</f>
-        <v>0.10592021594123908</v>
-      </c>
-      <c r="Q25" s="4">
-        <f>Q9/Q5</f>
-        <v>8.7015807891878849E-2</v>
-      </c>
-      <c r="R25" s="4">
-        <f>R9/R5</f>
-        <v>7.5032594524119936E-2</v>
-      </c>
-      <c r="S25" s="4">
-        <f>S9/S5</f>
-        <v>7.1083374211951086E-2</v>
-      </c>
-      <c r="T25" s="4">
-        <f>T9/T5</f>
-        <v>6.5669788205283117E-2</v>
-      </c>
-      <c r="U25" s="4">
-        <f>U9/U5</f>
-        <v>5.4986143078585188E-2</v>
-      </c>
-      <c r="V25" s="4">
-        <f>V9/V5</f>
-        <v>5.7548288945838508E-2</v>
-      </c>
-      <c r="W25" s="4">
-        <f>W9/W5</f>
-        <v>5.3824800642068751E-2</v>
-      </c>
-      <c r="X25" s="4">
-        <f>X9/X5</f>
-        <v>5.1348957946041683E-2</v>
-      </c>
-      <c r="Y25" s="7">
-        <f>Y9/Y5</f>
-        <v>4.8871007137623143E-2</v>
-      </c>
-      <c r="Z25" s="4">
-        <f>Z9/Z5</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="4">
-        <f>AA9/AA5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4">
-        <f>E3/D3-1</f>
+        <f t="shared" ref="E26:G27" si="44">E3/D3-1</f>
         <v>0.21999542438801201</v>
       </c>
       <c r="F26" s="4">
-        <f>F3/E3-1</f>
+        <f t="shared" si="44"/>
         <v>0.41358603474644418</v>
       </c>
-      <c r="G26" s="4">
-        <f>G3/F3-1</f>
+      <c r="G26" s="144">
+        <f t="shared" si="44"/>
         <v>0.32378085810137569</v>
       </c>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="L26" s="4"/>
+      <c r="H26" s="7">
+        <f t="shared" ref="H26:J26" si="45">H3/G3-1</f>
+        <v>0.2937545234887371</v>
+      </c>
+      <c r="I26" s="144">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="J26" s="144" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="Q26" s="4">
+        <f t="shared" ref="Q26:Q27" si="46">Q3/M3-1</f>
+        <v>0.563899557687775</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" ref="R26:R27" si="47">R3/N3-1</f>
+        <v>0.30314824535572993</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" ref="S26:U26" si="48">S3/O3-1</f>
+        <v>0.20531145943311935</v>
+      </c>
       <c r="T26" s="4">
-        <f t="shared" ref="T26:T27" si="28">T3/P3-1</f>
-        <v>0.563899557687775</v>
+        <f t="shared" si="48"/>
+        <v>0.27032443212218515</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" ref="U26:U27" si="29">U3/Q3-1</f>
-        <v>0.30314824535572993</v>
+        <f t="shared" si="48"/>
+        <v>0.27458994591719121</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" ref="V26:X26" si="30">V3/R3-1</f>
-        <v>0.20531145943311935</v>
+        <f t="shared" ref="V26:V27" si="49">V3/R3-1</f>
+        <v>0.40434248661394112</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" si="30"/>
-        <v>0.27032443212218515</v>
+        <f t="shared" ref="W26:W27" si="50">W3/S3-1</f>
+        <v>0.32973326787759771</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" si="30"/>
-        <v>0.27458994591719121</v>
-      </c>
-      <c r="Y26" s="7">
-        <f>Y3/U3-1</f>
-        <v>0.40434248661394112</v>
-      </c>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="X26:X27" si="51">X3/T3-1</f>
+        <v>0.19548486403283705</v>
+      </c>
+      <c r="Y26" s="4">
+        <f t="shared" ref="Y26:Y27" si="52">Y3/U3-1</f>
+        <v>8.7255931720007673E-2</v>
+      </c>
+      <c r="Z26" s="4">
+        <f t="shared" ref="Z26:Z27" si="53">Z3/V3-1</f>
+        <v>0.24819331052672089</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" ref="AA26:AA27" si="54">AA3/W3-1</f>
+        <v>0.39445642889200982</v>
+      </c>
+      <c r="AB26" s="4">
+        <f t="shared" ref="AB26:AB27" si="55">AB3/X3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AC26" s="4">
+        <f t="shared" ref="AC26:AC27" si="56">AC3/Y3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4">
-        <f>E4/D4-1</f>
+        <f t="shared" si="44"/>
         <v>0.19044640318453232</v>
       </c>
       <c r="F27" s="4">
-        <f>F4/E4-1</f>
+        <f t="shared" si="44"/>
         <v>9.085697907709922E-2</v>
       </c>
-      <c r="G27" s="4">
-        <f>G4/F4-1</f>
+      <c r="G27" s="144">
+        <f t="shared" si="44"/>
         <v>-1.0509721492378832E-3</v>
       </c>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="L27" s="4"/>
+      <c r="H27" s="7">
+        <f t="shared" ref="H27:J27" si="57">H4/G4-1</f>
+        <v>0.11138874276696487</v>
+      </c>
+      <c r="I27" s="144">
+        <f t="shared" si="57"/>
+        <v>-1</v>
+      </c>
+      <c r="J27" s="144" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
+      <c r="Q27" s="4">
+        <f t="shared" si="46"/>
+        <v>0.29268786712578465</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="47"/>
+        <v>-2.1625026243963785E-2</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" ref="S27:U27" si="58">S4/O4-1</f>
+        <v>0.11848179175927509</v>
+      </c>
       <c r="T27" s="4">
-        <f t="shared" si="28"/>
-        <v>0.29268786712578465</v>
+        <f t="shared" si="58"/>
+        <v>-0.28255797996431942</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="29"/>
-        <v>-2.1625026243963785E-2</v>
+        <f t="shared" si="58"/>
+        <v>-0.34691319335631454</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" ref="V27:X27" si="31">V4/R4-1</f>
-        <v>0.11848179175927509</v>
+        <f t="shared" si="49"/>
+        <v>-4.5708154506437837E-2</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="31"/>
-        <v>-0.28255797996431942</v>
+        <f t="shared" si="50"/>
+        <v>4.8608988077040838E-2</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" si="31"/>
-        <v>-0.34691319335631454</v>
-      </c>
-      <c r="Y27" s="7">
-        <f>Y4/U4-1</f>
-        <v>-4.5708154506437837E-2</v>
-      </c>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0.88944146901300636</v>
+      </c>
+      <c r="Y27" s="4">
+        <f t="shared" si="52"/>
+        <v>0.41170825335892514</v>
+      </c>
+      <c r="Z27" s="4">
+        <f t="shared" si="53"/>
+        <v>0.42770407015965817</v>
+      </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="54"/>
+        <v>-8.1195335276967984E-2</v>
+      </c>
+      <c r="AB27" s="4">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="AC27" s="4">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="e">
@@ -15669,74 +15848,82 @@
         <f>F19/E19-1</f>
         <v>-0.4867249993164825</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="39">
         <f>G19/F19-1</f>
         <v>19.510410754330085</v>
       </c>
-      <c r="H28" s="56">
-        <f>H20/G19-1</f>
-        <v>0.84663190330908078</v>
-      </c>
-      <c r="I28" s="56">
-        <f>I20/H20-1</f>
-        <v>0.11009174311926584</v>
-      </c>
-      <c r="L28" s="4"/>
+      <c r="H28" s="6">
+        <f t="shared" ref="H28:J28" si="59">H19/G19-1</f>
+        <v>1.0042864636219906</v>
+      </c>
+      <c r="I28" s="39">
+        <f t="shared" si="59"/>
+        <v>0.25099553158012977</v>
+      </c>
+      <c r="J28" s="39">
+        <f t="shared" si="59"/>
+        <v>0.14189189189189189</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="4" t="e">
-        <f>P17/L17-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="4" t="e">
-        <f>Q17/M17-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="4" t="e">
-        <f>R17/N17-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="4" t="e">
-        <f>S17/O17-1</f>
-        <v>#DIV/0!</v>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4">
+        <f t="shared" ref="Q28:X28" si="60">Q17/M17-1</f>
+        <v>-5.6549479166666359</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="60"/>
+        <v>32.582914572863722</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="60"/>
+        <v>5.2558782849239183</v>
       </c>
       <c r="T28" s="4">
-        <f>T17/P17-1</f>
-        <v>-5.6549479166666359</v>
+        <f t="shared" si="60"/>
+        <v>2.8659517426273475</v>
       </c>
       <c r="U28" s="4">
-        <f>U17/Q17-1</f>
-        <v>32.582914572863722</v>
-      </c>
-      <c r="V28" s="4">
-        <f>V17/R17-1</f>
-        <v>5.2558782849239183</v>
+        <f t="shared" si="60"/>
+        <v>1.6605594405594344</v>
+      </c>
+      <c r="V28" s="144">
+        <f t="shared" si="60"/>
+        <v>1.444860092772708</v>
       </c>
       <c r="W28" s="4">
-        <f>W17/S17-1</f>
-        <v>2.8659517426273475</v>
+        <f t="shared" si="60"/>
+        <v>0.6343135087331444</v>
       </c>
       <c r="X28" s="4">
-        <f>X17/T17-1</f>
-        <v>1.6605594405594344</v>
-      </c>
-      <c r="Y28" s="7">
-        <f>Y17/U17-1</f>
-        <v>1.444860092772708</v>
+        <f t="shared" si="60"/>
+        <v>0.47489597780859527</v>
+      </c>
+      <c r="Y28" s="4">
+        <f t="shared" ref="Y28" si="61">Y17/U17-1</f>
+        <v>-0.1115491773116748</v>
       </c>
       <c r="Z28" s="4">
-        <f>Z17/V17-1</f>
-        <v>30.994251602918428</v>
-      </c>
-      <c r="AA28" s="4">
-        <f>AA17/W17-1</f>
-        <v>20.740638002773824</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Z28" si="62">Z17/V17-1</f>
+        <v>1.8299773547951093E-2</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" ref="AA28" si="63">AA17/W17-1</f>
+        <v>1.221185064935062</v>
+      </c>
+      <c r="AB28" s="4">
+        <f t="shared" ref="AB28" si="64">AB17/X17-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AC28" s="4">
+        <f t="shared" ref="AC28" si="65">AC17/Y17-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11">
         <f>C33+C34-C48-C52</f>
@@ -15747,93 +15934,102 @@
         <v>0</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" ref="E32:I32" si="32">E33+E34-E48-E52</f>
+        <f t="shared" ref="E32:J32" si="66">E33+E34-E48-E52</f>
         <v>99.259999999999991</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="66"/>
         <v>70.135000000000005</v>
       </c>
-      <c r="G32" s="14">
-        <f t="shared" si="32"/>
+      <c r="G32" s="141">
+        <f t="shared" si="66"/>
         <v>103.08000000000001</v>
       </c>
-      <c r="H32" s="11">
-        <f t="shared" si="32"/>
+      <c r="H32" s="14">
+        <f t="shared" si="66"/>
+        <v>148.35000000000002</v>
+      </c>
+      <c r="I32" s="141">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="I32" s="11">
-        <f t="shared" si="32"/>
+      <c r="J32" s="141">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="L32" s="11">
-        <f t="shared" ref="L32" si="33">L33+L34-L48-L52</f>
+      <c r="M32" s="11">
+        <f t="shared" ref="M32" si="67">M33+M34-M48-M52</f>
         <v>0</v>
       </c>
-      <c r="M32" s="11">
-        <f t="shared" ref="M32" si="34">M33+M34-M48-M52</f>
+      <c r="N32" s="11">
+        <f t="shared" ref="N32" si="68">N33+N34-N48-N52</f>
         <v>0</v>
       </c>
-      <c r="N32" s="11">
-        <f t="shared" ref="N32" si="35">N33+N34-N48-N52</f>
+      <c r="O32" s="11">
+        <f t="shared" ref="O32" si="69">O33+O34-O48-O52</f>
         <v>0</v>
       </c>
-      <c r="O32" s="11">
-        <f t="shared" ref="O32" si="36">O33+O34-O48-O52</f>
+      <c r="P32" s="11">
+        <f t="shared" ref="P32" si="70">P33+P34-P48-P52</f>
+        <v>70.135000000000005</v>
+      </c>
+      <c r="Q32" s="11">
+        <f t="shared" ref="Q32" si="71">Q33+Q34-Q48-Q52</f>
+        <v>74.85799999999999</v>
+      </c>
+      <c r="R32" s="11">
+        <f t="shared" ref="R32" si="72">R33+R34-R48-R52</f>
+        <v>85.712000000000003</v>
+      </c>
+      <c r="S32" s="11">
+        <f t="shared" ref="S32" si="73">S33+S34-S48-S52</f>
+        <v>81.828000000000003</v>
+      </c>
+      <c r="T32" s="11">
+        <f t="shared" ref="T32" si="74">T33+T34-T48-T52</f>
+        <v>103.08000000000001</v>
+      </c>
+      <c r="U32" s="11">
+        <f t="shared" ref="U32" si="75">U33+U34-U48-U52</f>
+        <v>123.74399999999997</v>
+      </c>
+      <c r="V32" s="141">
+        <f t="shared" ref="V32" si="76">V33+V34-V48-V52</f>
+        <v>139.49300000000002</v>
+      </c>
+      <c r="W32" s="11">
+        <f t="shared" ref="W32" si="77">W33+W34-W48-W52</f>
+        <v>150.13899999999998</v>
+      </c>
+      <c r="X32" s="11">
+        <f t="shared" ref="X32:AC32" si="78">X33+X34-X48-X52</f>
+        <v>148.35000000000002</v>
+      </c>
+      <c r="Y32" s="11">
+        <f t="shared" si="78"/>
+        <v>149.50599999999997</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="78"/>
+        <v>144.13800000000001</v>
+      </c>
+      <c r="AA32" s="14">
+        <f t="shared" si="78"/>
+        <v>133.827</v>
+      </c>
+      <c r="AB32" s="11">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="P32" s="11">
-        <f t="shared" ref="P32" si="37">P33+P34-P48-P52</f>
+      <c r="AC32" s="11">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="11">
-        <f t="shared" ref="Q32" si="38">Q33+Q34-Q48-Q52</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="11">
-        <f t="shared" ref="R32" si="39">R33+R34-R48-R52</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="11">
-        <f t="shared" ref="S32" si="40">S33+S34-S48-S52</f>
-        <v>70.135000000000005</v>
-      </c>
-      <c r="T32" s="11">
-        <f t="shared" ref="T32" si="41">T33+T34-T48-T52</f>
-        <v>74.85799999999999</v>
-      </c>
-      <c r="U32" s="11">
-        <f t="shared" ref="U32" si="42">U33+U34-U48-U52</f>
-        <v>85.712000000000003</v>
-      </c>
-      <c r="V32" s="11">
-        <f t="shared" ref="V32" si="43">V33+V34-V48-V52</f>
-        <v>81.828000000000003</v>
-      </c>
-      <c r="W32" s="11">
-        <f t="shared" ref="W32" si="44">W33+W34-W48-W52</f>
-        <v>103.08000000000001</v>
-      </c>
-      <c r="X32" s="11">
-        <f t="shared" ref="X32" si="45">X33+X34-X48-X52</f>
-        <v>123.74399999999997</v>
-      </c>
-      <c r="Y32" s="14">
-        <f t="shared" ref="Y32" si="46">Y33+Y34-Y48-Y52</f>
-        <v>139.49300000000002</v>
-      </c>
-      <c r="Z32" s="11">
-        <f t="shared" ref="Z32" si="47">Z33+Z34-Z48-Z52</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="11">
-        <f t="shared" ref="AA32" si="48">AA33+AA34-AA48-AA52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AD32" s="11"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -15843,45 +16039,61 @@
       <c r="F33" s="10">
         <v>12.914</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="140">
         <v>84.149000000000001</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="H33" s="15">
+        <f>X33</f>
+        <v>150.601</v>
+      </c>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10">
+      <c r="P33" s="10">
         <f>F33</f>
         <v>12.914</v>
       </c>
+      <c r="Q33" s="10">
+        <v>25.838000000000001</v>
+      </c>
+      <c r="R33" s="10">
+        <v>47.673000000000002</v>
+      </c>
+      <c r="S33" s="10">
+        <v>56.81</v>
+      </c>
       <c r="T33" s="10">
-        <v>25.838000000000001</v>
-      </c>
-      <c r="U33" s="10">
-        <v>47.673000000000002</v>
-      </c>
-      <c r="V33" s="10">
-        <v>56.81</v>
-      </c>
-      <c r="W33" s="10">
         <f>G33</f>
         <v>84.149000000000001</v>
       </c>
+      <c r="U33" s="10">
+        <v>113.82</v>
+      </c>
+      <c r="V33" s="140">
+        <v>133.173</v>
+      </c>
+      <c r="W33" s="10">
+        <v>149.53399999999999</v>
+      </c>
       <c r="X33" s="10">
-        <v>113.82</v>
-      </c>
-      <c r="Y33" s="15">
-        <v>133.173</v>
-      </c>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+        <v>150.601</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>156.30500000000001</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>108.224</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>93.796000000000006</v>
+      </c>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -15891,45 +16103,61 @@
       <c r="F34" s="10">
         <v>65.813999999999993</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="140">
         <v>32.667000000000002</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="H34" s="15">
+        <f t="shared" ref="H34:H38" si="79">X34</f>
+        <v>9.6920000000000002</v>
+      </c>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
+      <c r="P34" s="10">
+        <f>F34</f>
+        <v>65.813999999999993</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>57.232999999999997</v>
+      </c>
+      <c r="R34" s="10">
+        <v>45.862000000000002</v>
+      </c>
       <c r="S34" s="10">
-        <f t="shared" ref="S34:S38" si="49">F34</f>
-        <v>65.813999999999993</v>
+        <v>39.256</v>
       </c>
       <c r="T34" s="10">
-        <v>57.232999999999997</v>
+        <f>G34</f>
+        <v>32.667000000000002</v>
       </c>
       <c r="U34" s="10">
-        <v>45.862000000000002</v>
-      </c>
-      <c r="V34" s="10">
-        <v>39.256</v>
+        <v>23.724</v>
+      </c>
+      <c r="V34" s="140">
+        <v>19.533000000000001</v>
       </c>
       <c r="W34" s="10">
-        <f t="shared" ref="W34:W38" si="50">G34</f>
-        <v>32.667000000000002</v>
+        <v>13.48</v>
       </c>
       <c r="X34" s="10">
-        <v>23.724</v>
-      </c>
-      <c r="Y34" s="15">
-        <v>19.533000000000001</v>
-      </c>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+        <v>9.6920000000000002</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>5.0209999999999999</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>46.773000000000003</v>
+      </c>
+      <c r="AA34" s="15">
+        <v>51.256999999999998</v>
+      </c>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -15939,45 +16167,61 @@
       <c r="F35" s="10">
         <v>40.226999999999997</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="140">
         <v>39.698999999999998</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="H35" s="15">
+        <f t="shared" si="79"/>
+        <v>54.341999999999999</v>
+      </c>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
+      <c r="P35" s="10">
+        <f>F35</f>
+        <v>40.226999999999997</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>40.198999999999998</v>
+      </c>
+      <c r="R35" s="10">
+        <v>30.045000000000002</v>
+      </c>
       <c r="S35" s="10">
-        <f t="shared" si="49"/>
-        <v>40.226999999999997</v>
+        <v>37.401000000000003</v>
       </c>
       <c r="T35" s="10">
-        <v>40.198999999999998</v>
+        <f>G35</f>
+        <v>39.698999999999998</v>
       </c>
       <c r="U35" s="10">
-        <v>30.045000000000002</v>
-      </c>
-      <c r="V35" s="10">
-        <v>37.401000000000003</v>
+        <v>43.637</v>
+      </c>
+      <c r="V35" s="140">
+        <v>42.863</v>
       </c>
       <c r="W35" s="10">
-        <f t="shared" si="50"/>
-        <v>39.698999999999998</v>
+        <v>47.752000000000002</v>
       </c>
       <c r="X35" s="10">
-        <v>43.637</v>
-      </c>
-      <c r="Y35" s="15">
-        <v>42.863</v>
-      </c>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+        <v>54.341999999999999</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>51.878</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>68.405000000000001</v>
+      </c>
+      <c r="AA35" s="15">
+        <v>58.252000000000002</v>
+      </c>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -15987,45 +16231,61 @@
       <c r="F36" s="10">
         <v>26.849</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="140">
         <v>32.895000000000003</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="H36" s="15">
+        <f t="shared" si="79"/>
+        <v>23.666</v>
+      </c>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
+      <c r="P36" s="10">
+        <f>F36</f>
+        <v>26.849</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>33.942</v>
+      </c>
+      <c r="R36" s="10">
+        <v>42.104999999999997</v>
+      </c>
       <c r="S36" s="10">
-        <f t="shared" si="49"/>
-        <v>26.849</v>
+        <v>38.271000000000001</v>
       </c>
       <c r="T36" s="10">
-        <v>33.942</v>
+        <f>G36</f>
+        <v>32.895000000000003</v>
       </c>
       <c r="U36" s="10">
-        <v>42.104999999999997</v>
-      </c>
-      <c r="V36" s="10">
-        <v>38.271000000000001</v>
+        <v>30.812999999999999</v>
+      </c>
+      <c r="V36" s="140">
+        <v>31.448</v>
       </c>
       <c r="W36" s="10">
-        <f t="shared" si="50"/>
-        <v>32.895000000000003</v>
+        <v>33.392000000000003</v>
       </c>
       <c r="X36" s="10">
-        <v>30.812999999999999</v>
-      </c>
-      <c r="Y36" s="15">
-        <v>31.448</v>
-      </c>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+        <v>23.666</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>34.524999999999999</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>42.71</v>
+      </c>
+      <c r="AA36" s="15">
+        <v>51.813000000000002</v>
+      </c>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -16035,79 +16295,110 @@
       <c r="F37" s="10">
         <v>3.81</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="140">
         <v>6.1139999999999999</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="H37" s="15">
+        <f t="shared" si="79"/>
+        <v>7.74</v>
+      </c>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="P37" s="10">
+        <f>F37</f>
+        <v>3.81</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>5.3419999999999996</v>
+      </c>
+      <c r="R37" s="10">
+        <v>6.1929999999999996</v>
+      </c>
       <c r="S37" s="10">
-        <f t="shared" ref="S37" si="51">F37</f>
-        <v>3.81</v>
+        <v>5.0259999999999998</v>
       </c>
       <c r="T37" s="10">
-        <v>5.3419999999999996</v>
+        <f>G37</f>
+        <v>6.1139999999999999</v>
       </c>
       <c r="U37" s="10">
-        <v>6.1929999999999996</v>
-      </c>
-      <c r="V37" s="10">
-        <v>5.0259999999999998</v>
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="V37" s="140">
+        <v>4.53</v>
       </c>
       <c r="W37" s="10">
-        <f t="shared" ref="W37" si="52">G37</f>
-        <v>6.1139999999999999</v>
+        <v>6.4459999999999997</v>
       </c>
       <c r="X37" s="10">
-        <v>6.1760000000000002</v>
-      </c>
-      <c r="Y37" s="15">
-        <v>4.53</v>
-      </c>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+        <v>7.74</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>8.9120000000000008</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>6.4279999999999999</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>12.055</v>
+      </c>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="15"/>
-      <c r="L38" s="10"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="15">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="P38" s="10">
+        <f>F38</f>
+        <v>0</v>
+      </c>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="10">
-        <f t="shared" si="49"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10">
+        <f>G38</f>
         <v>0</v>
       </c>
-      <c r="T38" s="10"/>
       <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
+      <c r="V38" s="140">
+        <v>2.6629999999999998</v>
+      </c>
       <c r="W38" s="10">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="X38" s="10"/>
-      <c r="Y38" s="15">
-        <v>2.6629999999999998</v>
-      </c>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-    </row>
-    <row r="39" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="10">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="AA38" s="15">
+        <f>1.914+2.883</f>
+        <v>4.7969999999999997</v>
+      </c>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+    </row>
+    <row r="39" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C39" s="11">
         <f>SUM(C33:C38)</f>
@@ -16125,78 +16416,95 @@
         <f>SUM(F33:F38)</f>
         <v>149.61399999999998</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="141">
         <f>SUM(G33:G38)</f>
         <v>195.524</v>
       </c>
-      <c r="L39" s="11">
-        <f>SUM(L33:L38)</f>
+      <c r="H39" s="14">
+        <f t="shared" ref="H39:J39" si="80">SUM(H33:H38)</f>
+        <v>246.041</v>
+      </c>
+      <c r="I39" s="141">
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
+      <c r="J39" s="141">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
       <c r="M39" s="11">
-        <f>SUM(M33:M38)</f>
+        <f t="shared" ref="M39:X39" si="81">SUM(M33:M38)</f>
         <v>0</v>
       </c>
       <c r="N39" s="11">
-        <f>SUM(N33:N38)</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O39" s="11">
-        <f>SUM(O33:O38)</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="P39" s="11">
-        <f>SUM(P33:P38)</f>
+        <f t="shared" si="81"/>
+        <v>149.61399999999998</v>
+      </c>
+      <c r="Q39" s="11">
+        <f t="shared" si="81"/>
+        <v>162.554</v>
+      </c>
+      <c r="R39" s="11">
+        <f t="shared" si="81"/>
+        <v>171.87800000000001</v>
+      </c>
+      <c r="S39" s="11">
+        <f t="shared" si="81"/>
+        <v>176.76400000000001</v>
+      </c>
+      <c r="T39" s="11">
+        <f t="shared" si="81"/>
+        <v>195.524</v>
+      </c>
+      <c r="U39" s="11">
+        <f t="shared" si="81"/>
+        <v>218.16999999999996</v>
+      </c>
+      <c r="V39" s="141">
+        <f t="shared" si="81"/>
+        <v>234.21000000000004</v>
+      </c>
+      <c r="W39" s="11">
+        <f t="shared" si="81"/>
+        <v>251.59399999999999</v>
+      </c>
+      <c r="X39" s="11">
+        <f t="shared" si="81"/>
+        <v>246.041</v>
+      </c>
+      <c r="Y39" s="11">
+        <f t="shared" ref="Y39" si="82">SUM(Y33:Y38)</f>
+        <v>259.83300000000003</v>
+      </c>
+      <c r="Z39" s="11">
+        <f t="shared" ref="Z39" si="83">SUM(Z33:Z38)</f>
+        <v>275.20699999999999</v>
+      </c>
+      <c r="AA39" s="14">
+        <f t="shared" ref="AA39" si="84">SUM(AA33:AA38)</f>
+        <v>271.97000000000003</v>
+      </c>
+      <c r="AB39" s="11">
+        <f t="shared" ref="AB39" si="85">SUM(AB33:AB38)</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="11">
-        <f>SUM(Q33:Q38)</f>
+      <c r="AC39" s="11">
+        <f t="shared" ref="AC39" si="86">SUM(AC33:AC38)</f>
         <v>0</v>
       </c>
-      <c r="R39" s="11">
-        <f>SUM(R33:R38)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="11">
-        <f>SUM(S33:S38)</f>
-        <v>149.61399999999998</v>
-      </c>
-      <c r="T39" s="11">
-        <f>SUM(T33:T38)</f>
-        <v>162.554</v>
-      </c>
-      <c r="U39" s="11">
-        <f>SUM(U33:U38)</f>
-        <v>171.87800000000001</v>
-      </c>
-      <c r="V39" s="11">
-        <f>SUM(V33:V38)</f>
-        <v>176.76400000000001</v>
-      </c>
-      <c r="W39" s="11">
-        <f>SUM(W33:W38)</f>
-        <v>195.524</v>
-      </c>
-      <c r="X39" s="11">
-        <f>SUM(X33:X38)</f>
-        <v>218.16999999999996</v>
-      </c>
-      <c r="Y39" s="14">
-        <f>SUM(Y33:Y38)</f>
-        <v>234.21000000000004</v>
-      </c>
-      <c r="Z39" s="11">
-        <f>SUM(Z33:Z38)</f>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="11">
-        <f>SUM(AA33:AA38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AD39" s="11"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -16206,45 +16514,61 @@
       <c r="F40" s="10">
         <v>59.155000000000001</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="140">
         <v>66.838999999999999</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="H40" s="15">
+        <f t="shared" ref="H40:H43" si="87">X40</f>
+        <v>84.521000000000001</v>
+      </c>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
+      <c r="P40" s="10">
+        <f>F40</f>
+        <v>59.155000000000001</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>58.771999999999998</v>
+      </c>
+      <c r="R40" s="10">
+        <v>59.34</v>
+      </c>
       <c r="S40" s="10">
-        <f t="shared" ref="S40:S43" si="53">F40</f>
-        <v>59.155000000000001</v>
+        <v>67.858999999999995</v>
       </c>
       <c r="T40" s="10">
-        <v>58.771999999999998</v>
+        <f>G40</f>
+        <v>66.838999999999999</v>
       </c>
       <c r="U40" s="10">
-        <v>59.34</v>
-      </c>
-      <c r="V40" s="10">
-        <v>67.858999999999995</v>
+        <v>66.230999999999995</v>
+      </c>
+      <c r="V40" s="140">
+        <v>68.326999999999998</v>
       </c>
       <c r="W40" s="10">
-        <f t="shared" ref="W40:W43" si="54">G40</f>
-        <v>66.838999999999999</v>
+        <v>69.269000000000005</v>
       </c>
       <c r="X40" s="10">
-        <v>66.230999999999995</v>
-      </c>
-      <c r="Y40" s="15">
-        <v>68.326999999999998</v>
-      </c>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+        <v>84.521000000000001</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>81.451999999999998</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>111.155</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>121.078</v>
+      </c>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -16254,45 +16578,61 @@
       <c r="F41" s="10">
         <v>1.895</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="140">
         <v>8.9109999999999996</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="H41" s="15">
+        <f t="shared" si="87"/>
+        <v>19.617000000000001</v>
+      </c>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
+      <c r="P41" s="10">
+        <f>F41</f>
+        <v>1.895</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="R41" s="10">
+        <v>1.2</v>
+      </c>
       <c r="S41" s="10">
-        <f t="shared" si="53"/>
-        <v>1.895</v>
+        <v>1.512</v>
       </c>
       <c r="T41" s="10">
-        <v>1.5489999999999999</v>
+        <f>G41</f>
+        <v>8.9109999999999996</v>
       </c>
       <c r="U41" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="V41" s="10">
-        <v>1.512</v>
+        <v>10.842000000000001</v>
+      </c>
+      <c r="V41" s="140">
+        <v>12.478</v>
       </c>
       <c r="W41" s="10">
-        <f t="shared" si="54"/>
-        <v>8.9109999999999996</v>
+        <v>17.324000000000002</v>
       </c>
       <c r="X41" s="10">
-        <v>10.842000000000001</v>
-      </c>
-      <c r="Y41" s="15">
-        <v>12.478</v>
-      </c>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+        <v>19.617000000000001</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>24.510999999999999</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>31.196000000000002</v>
+      </c>
+      <c r="AA41" s="15">
+        <v>75.165999999999997</v>
+      </c>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -16302,45 +16642,61 @@
       <c r="F42" s="10">
         <v>3.8580000000000001</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="140">
         <v>3.9039999999999999</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="H42" s="15">
+        <f t="shared" si="87"/>
+        <v>9.1530000000000005</v>
+      </c>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
+      <c r="P42" s="10">
+        <f>F42</f>
+        <v>3.8580000000000001</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="R42" s="10">
+        <v>3.9039999999999999</v>
+      </c>
       <c r="S42" s="10">
-        <f t="shared" si="53"/>
-        <v>3.8580000000000001</v>
+        <v>3.9039999999999999</v>
       </c>
       <c r="T42" s="10">
+        <f>G42</f>
         <v>3.9039999999999999</v>
       </c>
       <c r="U42" s="10">
-        <v>3.9039999999999999</v>
-      </c>
-      <c r="V42" s="10">
-        <v>3.9039999999999999</v>
+        <v>4.915</v>
+      </c>
+      <c r="V42" s="140">
+        <v>5.4740000000000002</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" si="54"/>
-        <v>3.9039999999999999</v>
+        <v>6.4809999999999999</v>
       </c>
       <c r="X42" s="10">
-        <v>4.915</v>
-      </c>
-      <c r="Y42" s="15">
-        <v>5.4740000000000002</v>
-      </c>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+        <v>9.1530000000000005</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>11.093</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>13.194000000000001</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>13.29</v>
+      </c>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -16350,33 +16706,36 @@
       <c r="F43" s="10">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="L43" s="10"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="15">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
+      <c r="P43" s="10">
+        <f>F43</f>
+        <v>0.14399999999999999</v>
+      </c>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="10">
-        <f t="shared" si="53"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="T43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10">
+        <f>G43</f>
+        <v>0</v>
+      </c>
       <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10">
-        <f t="shared" si="54"/>
+      <c r="V43" s="140"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10">
         <v>0</v>
       </c>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C44" s="11">
         <f>SUM(C39:C43)</f>
@@ -16394,78 +16753,95 @@
         <f>SUM(F39:F43)</f>
         <v>214.666</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="141">
         <f>SUM(G39:G43)</f>
         <v>275.178</v>
       </c>
-      <c r="L44" s="11">
-        <f>SUM(L39:L43)</f>
+      <c r="H44" s="14">
+        <f t="shared" ref="H44:J44" si="88">SUM(H39:H43)</f>
+        <v>359.33200000000005</v>
+      </c>
+      <c r="I44" s="141">
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
+      <c r="J44" s="141">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
       <c r="M44" s="11">
-        <f>SUM(M39:M43)</f>
+        <f t="shared" ref="M44:X44" si="89">SUM(M39:M43)</f>
         <v>0</v>
       </c>
       <c r="N44" s="11">
-        <f>SUM(N39:N43)</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="O44" s="11">
-        <f>SUM(O39:O43)</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="P44" s="11">
-        <f>SUM(P39:P43)</f>
+        <f t="shared" si="89"/>
+        <v>214.666</v>
+      </c>
+      <c r="Q44" s="11">
+        <f t="shared" si="89"/>
+        <v>226.779</v>
+      </c>
+      <c r="R44" s="11">
+        <f t="shared" si="89"/>
+        <v>236.322</v>
+      </c>
+      <c r="S44" s="11">
+        <f t="shared" si="89"/>
+        <v>250.03899999999999</v>
+      </c>
+      <c r="T44" s="11">
+        <f t="shared" si="89"/>
+        <v>275.178</v>
+      </c>
+      <c r="U44" s="11">
+        <f t="shared" si="89"/>
+        <v>300.15799999999996</v>
+      </c>
+      <c r="V44" s="141">
+        <f t="shared" si="89"/>
+        <v>320.48900000000003</v>
+      </c>
+      <c r="W44" s="11">
+        <f t="shared" si="89"/>
+        <v>344.66800000000001</v>
+      </c>
+      <c r="X44" s="11">
+        <f t="shared" si="89"/>
+        <v>359.33200000000005</v>
+      </c>
+      <c r="Y44" s="11">
+        <f t="shared" ref="Y44" si="90">SUM(Y39:Y43)</f>
+        <v>376.88900000000007</v>
+      </c>
+      <c r="Z44" s="11">
+        <f t="shared" ref="Z44" si="91">SUM(Z39:Z43)</f>
+        <v>430.75200000000001</v>
+      </c>
+      <c r="AA44" s="14">
+        <f t="shared" ref="AA44" si="92">SUM(AA39:AA43)</f>
+        <v>481.50400000000002</v>
+      </c>
+      <c r="AB44" s="11">
+        <f t="shared" ref="AB44" si="93">SUM(AB39:AB43)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="11">
-        <f>SUM(Q39:Q43)</f>
+      <c r="AC44" s="11">
+        <f t="shared" ref="AC44" si="94">SUM(AC39:AC43)</f>
         <v>0</v>
       </c>
-      <c r="R44" s="11">
-        <f>SUM(R39:R43)</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="11">
-        <f>SUM(S39:S43)</f>
-        <v>214.666</v>
-      </c>
-      <c r="T44" s="11">
-        <f>SUM(T39:T43)</f>
-        <v>226.779</v>
-      </c>
-      <c r="U44" s="11">
-        <f>SUM(U39:U43)</f>
-        <v>236.322</v>
-      </c>
-      <c r="V44" s="11">
-        <f>SUM(V39:V43)</f>
-        <v>250.03899999999999</v>
-      </c>
-      <c r="W44" s="11">
-        <f>SUM(W39:W43)</f>
-        <v>275.178</v>
-      </c>
-      <c r="X44" s="11">
-        <f>SUM(X39:X43)</f>
-        <v>300.15799999999996</v>
-      </c>
-      <c r="Y44" s="14">
-        <f>SUM(Y39:Y43)</f>
-        <v>320.48900000000003</v>
-      </c>
-      <c r="Z44" s="11">
-        <f>SUM(Z39:Z43)</f>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="11">
-        <f>SUM(AA39:AA43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AD44" s="11"/>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -16475,45 +16851,61 @@
       <c r="F45" s="10">
         <v>25.972000000000001</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="140">
         <v>33.484999999999999</v>
       </c>
-      <c r="L45" s="10"/>
+      <c r="H45" s="15">
+        <f t="shared" ref="H45:H49" si="95">X45</f>
+        <v>38.582000000000001</v>
+      </c>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
+      <c r="P45" s="10">
+        <f>F45</f>
+        <v>25.972000000000001</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>26.585999999999999</v>
+      </c>
+      <c r="R45" s="10">
+        <v>21.84</v>
+      </c>
       <c r="S45" s="10">
-        <f t="shared" ref="S45:S49" si="55">F45</f>
-        <v>25.972000000000001</v>
+        <v>21.97</v>
       </c>
       <c r="T45" s="10">
-        <v>26.585999999999999</v>
+        <f>G45</f>
+        <v>33.484999999999999</v>
       </c>
       <c r="U45" s="10">
-        <v>21.84</v>
-      </c>
-      <c r="V45" s="10">
-        <v>21.97</v>
+        <v>33.119</v>
+      </c>
+      <c r="V45" s="140">
+        <v>33.357999999999997</v>
       </c>
       <c r="W45" s="10">
-        <f t="shared" ref="W45:W49" si="56">G45</f>
-        <v>33.484999999999999</v>
+        <v>35.883000000000003</v>
       </c>
       <c r="X45" s="10">
-        <v>33.119</v>
-      </c>
-      <c r="Y45" s="15">
-        <v>33.357999999999997</v>
-      </c>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+        <v>38.582000000000001</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>38.756</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>66.352000000000004</v>
+      </c>
+      <c r="AA45" s="15">
+        <v>35.444000000000003</v>
+      </c>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -16523,45 +16915,61 @@
       <c r="F46" s="10">
         <v>18.477</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="140">
         <v>24.218</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="H46" s="15">
+        <f t="shared" si="95"/>
+        <v>31.327999999999999</v>
+      </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
+      <c r="P46" s="10">
+        <f>F46</f>
+        <v>18.477</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>18.853999999999999</v>
+      </c>
+      <c r="R46" s="10">
+        <v>25.167000000000002</v>
+      </c>
       <c r="S46" s="10">
-        <f t="shared" si="55"/>
-        <v>18.477</v>
+        <v>26.728999999999999</v>
       </c>
       <c r="T46" s="10">
-        <v>18.853999999999999</v>
+        <f>G46</f>
+        <v>24.218</v>
       </c>
       <c r="U46" s="10">
-        <v>25.167000000000002</v>
-      </c>
-      <c r="V46" s="10">
-        <v>26.728999999999999</v>
+        <v>22.28</v>
+      </c>
+      <c r="V46" s="140">
+        <v>25.928000000000001</v>
       </c>
       <c r="W46" s="10">
-        <f t="shared" si="56"/>
-        <v>24.218</v>
+        <v>33.344999999999999</v>
       </c>
       <c r="X46" s="10">
-        <v>22.28</v>
-      </c>
-      <c r="Y46" s="15">
-        <v>25.928000000000001</v>
-      </c>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+        <v>31.327999999999999</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>23.169</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>34.036999999999999</v>
+      </c>
+      <c r="AA46" s="15">
+        <v>54.970999999999997</v>
+      </c>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -16571,45 +16979,61 @@
       <c r="F47" s="10">
         <v>1.208</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="140">
         <v>3.0569999999999999</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="H47" s="15">
+        <f t="shared" si="95"/>
+        <v>3.8490000000000002</v>
+      </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
+      <c r="P47" s="10">
+        <f>F47</f>
+        <v>1.208</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="R47" s="10">
+        <v>0.73099999999999998</v>
+      </c>
       <c r="S47" s="10">
-        <f t="shared" si="55"/>
-        <v>1.208</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="T47" s="10">
-        <v>0.97</v>
+        <f>G47</f>
+        <v>3.0569999999999999</v>
       </c>
       <c r="U47" s="10">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="V47" s="10">
-        <v>0.68500000000000005</v>
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="V47" s="140">
+        <v>4.085</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" si="56"/>
-        <v>3.0569999999999999</v>
+        <v>4.665</v>
       </c>
       <c r="X47" s="10">
-        <v>4.5819999999999999</v>
-      </c>
-      <c r="Y47" s="15">
-        <v>4.085</v>
-      </c>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+        <v>3.8490000000000002</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>5.2389999999999999</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>5.3680000000000003</v>
+      </c>
+      <c r="AA47" s="15">
+        <v>7.0279999999999996</v>
+      </c>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -16619,45 +17043,61 @@
       <c r="F48" s="10">
         <v>1.57</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="140">
         <v>3.2549999999999999</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="H48" s="15">
+        <f t="shared" si="95"/>
+        <v>3.9319999999999999</v>
+      </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
+      <c r="P48" s="10">
+        <f>F48</f>
+        <v>1.57</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="R48" s="10">
+        <v>1.621</v>
+      </c>
       <c r="S48" s="10">
-        <f t="shared" si="55"/>
-        <v>1.57</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="T48" s="10">
-        <v>1.5960000000000001</v>
+        <f>G48</f>
+        <v>3.2549999999999999</v>
       </c>
       <c r="U48" s="10">
-        <v>1.621</v>
-      </c>
-      <c r="V48" s="10">
-        <v>3.1179999999999999</v>
+        <v>3.4790000000000001</v>
+      </c>
+      <c r="V48" s="140">
+        <v>3.62</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" si="56"/>
-        <v>3.2549999999999999</v>
+        <v>3.8519999999999999</v>
       </c>
       <c r="X48" s="10">
-        <v>3.4790000000000001</v>
-      </c>
-      <c r="Y48" s="15">
-        <v>3.62</v>
-      </c>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>4.3120000000000003</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>4.4009999999999998</v>
+      </c>
+      <c r="AA48" s="15">
+        <v>5.1509999999999998</v>
+      </c>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -16667,43 +17107,57 @@
       <c r="F49" s="10">
         <v>0.42499999999999999</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="140">
         <v>1.206</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="H49" s="15">
+        <f t="shared" si="95"/>
+        <v>0.83799999999999997</v>
+      </c>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
+      <c r="P49" s="10">
+        <f>F49</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="R49" s="10">
+        <v>2.3450000000000002</v>
+      </c>
       <c r="S49" s="10">
-        <f t="shared" si="55"/>
-        <v>0.42499999999999999</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="T49" s="10">
-        <v>2.5139999999999998</v>
+        <f>G49</f>
+        <v>1.206</v>
       </c>
       <c r="U49" s="10">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="V49" s="10">
-        <v>0.45600000000000002</v>
-      </c>
+        <v>6.9080000000000004</v>
+      </c>
+      <c r="V49" s="140"/>
       <c r="W49" s="10">
-        <f t="shared" si="56"/>
-        <v>1.206</v>
+        <v>0</v>
       </c>
       <c r="X49" s="10">
-        <v>6.9080000000000004</v>
-      </c>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-    </row>
-    <row r="50" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="Y49" s="10">
+        <v>6.0359999999999996</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+    </row>
+    <row r="50" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C50" s="11">
         <f>SUM(C45:C49)</f>
@@ -16721,78 +17175,95 @@
         <f>SUM(F45:F49)</f>
         <v>47.651999999999994</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="141">
         <f>SUM(G45:G49)</f>
         <v>65.221000000000004</v>
       </c>
-      <c r="L50" s="11">
-        <f t="shared" ref="L50:V50" si="57">SUM(L45:L49)</f>
+      <c r="H50" s="14">
+        <f t="shared" ref="H50:J50" si="96">SUM(H45:H49)</f>
+        <v>78.528999999999996</v>
+      </c>
+      <c r="I50" s="141">
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
+      <c r="J50" s="141">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
       <c r="M50" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="M50:S50" si="97">SUM(M45:M49)</f>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="97"/>
+        <v>47.651999999999994</v>
+      </c>
+      <c r="Q50" s="11">
+        <f t="shared" si="97"/>
+        <v>50.52</v>
+      </c>
+      <c r="R50" s="11">
+        <f t="shared" si="97"/>
+        <v>51.704000000000008</v>
+      </c>
+      <c r="S50" s="11">
+        <f t="shared" si="97"/>
+        <v>52.958000000000006</v>
+      </c>
+      <c r="T50" s="11">
+        <f t="shared" ref="T50:AC50" si="98">SUM(T45:T49)</f>
+        <v>65.221000000000004</v>
+      </c>
+      <c r="U50" s="11">
+        <f t="shared" si="98"/>
+        <v>70.367999999999995</v>
+      </c>
+      <c r="V50" s="141">
+        <f t="shared" si="98"/>
+        <v>66.991</v>
+      </c>
+      <c r="W50" s="11">
+        <f t="shared" si="98"/>
+        <v>77.745000000000019</v>
+      </c>
+      <c r="X50" s="11">
+        <f t="shared" si="98"/>
+        <v>78.528999999999996</v>
+      </c>
+      <c r="Y50" s="11">
+        <f t="shared" si="98"/>
+        <v>77.512</v>
+      </c>
+      <c r="Z50" s="11">
+        <f t="shared" si="98"/>
+        <v>110.848</v>
+      </c>
+      <c r="AA50" s="14">
+        <f t="shared" si="98"/>
+        <v>102.59399999999999</v>
+      </c>
+      <c r="AB50" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="11">
-        <f t="shared" si="57"/>
+      <c r="AC50" s="11">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R50" s="11">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="11">
-        <f t="shared" si="57"/>
-        <v>47.651999999999994</v>
-      </c>
-      <c r="T50" s="11">
-        <f t="shared" si="57"/>
-        <v>50.52</v>
-      </c>
-      <c r="U50" s="11">
-        <f t="shared" si="57"/>
-        <v>51.704000000000008</v>
-      </c>
-      <c r="V50" s="11">
-        <f t="shared" si="57"/>
-        <v>52.958000000000006</v>
-      </c>
-      <c r="W50" s="11">
-        <f t="shared" ref="W50:AA50" si="58">SUM(W45:W49)</f>
-        <v>65.221000000000004</v>
-      </c>
-      <c r="X50" s="11">
-        <f t="shared" si="58"/>
-        <v>70.367999999999995</v>
-      </c>
-      <c r="Y50" s="14">
-        <f t="shared" si="58"/>
-        <v>66.991</v>
-      </c>
-      <c r="Z50" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AD50" s="11"/>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -16800,45 +17271,61 @@
       <c r="F51" s="10">
         <v>0.89200000000000002</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="140">
         <v>5.7709999999999999</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="H51" s="15">
+        <f t="shared" ref="H51:H53" si="99">X51</f>
+        <v>2.9180000000000001</v>
+      </c>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
+      <c r="P51" s="10">
+        <f t="shared" ref="P51:P53" si="100">F51</f>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="R51" s="10">
+        <v>0.64700000000000002</v>
+      </c>
       <c r="S51" s="10">
-        <f t="shared" ref="S51:S53" si="59">F51</f>
-        <v>0.89200000000000002</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="T51" s="10">
-        <v>0.77</v>
+        <f t="shared" ref="T51:T53" si="101">G51</f>
+        <v>5.7709999999999999</v>
       </c>
       <c r="U51" s="10">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="V51" s="10">
-        <v>0.96099999999999997</v>
+        <v>5.101</v>
+      </c>
+      <c r="V51" s="140">
+        <v>4.3869999999999996</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" ref="W51:W53" si="60">G51</f>
-        <v>5.7709999999999999</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="X51" s="10">
-        <v>5.101</v>
-      </c>
-      <c r="Y51" s="15">
-        <v>4.3869999999999996</v>
-      </c>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+        <v>2.9180000000000001</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>2.145</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>1.361</v>
+      </c>
+      <c r="AA51" s="15">
+        <v>38.027000000000001</v>
+      </c>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -16846,45 +17333,61 @@
       <c r="F52" s="10">
         <v>7.0229999999999997</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="140">
         <v>10.481</v>
       </c>
-      <c r="L52" s="10"/>
+      <c r="H52" s="15">
+        <f t="shared" si="99"/>
+        <v>8.0109999999999992</v>
+      </c>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
+      <c r="P52" s="10">
+        <f t="shared" si="100"/>
+        <v>7.0229999999999997</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>6.617</v>
+      </c>
+      <c r="R52" s="10">
+        <v>6.202</v>
+      </c>
       <c r="S52" s="10">
-        <f t="shared" si="59"/>
-        <v>7.0229999999999997</v>
+        <v>11.12</v>
       </c>
       <c r="T52" s="10">
-        <v>6.617</v>
+        <f t="shared" si="101"/>
+        <v>10.481</v>
       </c>
       <c r="U52" s="10">
-        <v>6.202</v>
-      </c>
-      <c r="V52" s="10">
-        <v>11.12</v>
+        <v>10.321</v>
+      </c>
+      <c r="V52" s="140">
+        <v>9.593</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="60"/>
-        <v>10.481</v>
+        <v>9.0229999999999997</v>
       </c>
       <c r="X52" s="10">
-        <v>10.321</v>
-      </c>
-      <c r="Y52" s="15">
-        <v>9.593</v>
-      </c>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+        <v>8.0109999999999992</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>7.508</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>6.4580000000000002</v>
+      </c>
+      <c r="AA52" s="15">
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -16894,45 +17397,61 @@
       <c r="F53" s="10">
         <v>0.76700000000000002</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="140">
         <v>1.028</v>
       </c>
-      <c r="L53" s="10"/>
+      <c r="H53" s="15">
+        <f t="shared" si="99"/>
+        <v>0.57199999999999995</v>
+      </c>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
+      <c r="P53" s="10">
+        <f t="shared" si="100"/>
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="R53" s="10">
+        <v>1.7250000000000001</v>
+      </c>
       <c r="S53" s="10">
-        <f t="shared" si="59"/>
-        <v>0.76700000000000002</v>
+        <v>2.125</v>
       </c>
       <c r="T53" s="10">
-        <v>1.3420000000000001</v>
+        <f t="shared" si="101"/>
+        <v>1.028</v>
       </c>
       <c r="U53" s="10">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="V53" s="10">
-        <v>2.125</v>
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="V53" s="140">
+        <v>1.097</v>
       </c>
       <c r="W53" s="10">
-        <f t="shared" si="60"/>
-        <v>1.028</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="X53" s="10">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="Y53" s="15">
-        <v>1.097</v>
-      </c>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="AA53" s="15">
+        <v>3.5920000000000001</v>
+      </c>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C54" s="11">
         <f>SUM(C50:C53)</f>
@@ -16950,78 +17469,95 @@
         <f>SUM(F50:F53)</f>
         <v>56.333999999999996</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="141">
         <f>SUM(G50:G53)</f>
         <v>82.501000000000005</v>
       </c>
-      <c r="L54" s="11">
-        <f>SUM(L50:L53)</f>
+      <c r="H54" s="14">
+        <f t="shared" ref="H54:J54" si="102">SUM(H50:H53)</f>
+        <v>90.03</v>
+      </c>
+      <c r="I54" s="141">
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
+      <c r="J54" s="141">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
       <c r="M54" s="11">
-        <f>SUM(M50:M53)</f>
+        <f t="shared" ref="M54:X54" si="103">SUM(M50:M53)</f>
         <v>0</v>
       </c>
       <c r="N54" s="11">
-        <f>SUM(N50:N53)</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="O54" s="11">
-        <f>SUM(O50:O53)</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="P54" s="11">
-        <f>SUM(P50:P53)</f>
+        <f t="shared" si="103"/>
+        <v>56.333999999999996</v>
+      </c>
+      <c r="Q54" s="11">
+        <f t="shared" si="103"/>
+        <v>59.249000000000002</v>
+      </c>
+      <c r="R54" s="11">
+        <f t="shared" si="103"/>
+        <v>60.278000000000006</v>
+      </c>
+      <c r="S54" s="11">
+        <f t="shared" si="103"/>
+        <v>67.164000000000001</v>
+      </c>
+      <c r="T54" s="11">
+        <f t="shared" si="103"/>
+        <v>82.501000000000005</v>
+      </c>
+      <c r="U54" s="11">
+        <f t="shared" si="103"/>
+        <v>86.853999999999985</v>
+      </c>
+      <c r="V54" s="141">
+        <f t="shared" si="103"/>
+        <v>82.067999999999998</v>
+      </c>
+      <c r="W54" s="11">
+        <f t="shared" si="103"/>
+        <v>91.308000000000007</v>
+      </c>
+      <c r="X54" s="11">
+        <f t="shared" si="103"/>
+        <v>90.03</v>
+      </c>
+      <c r="Y54" s="11">
+        <f t="shared" ref="Y54" si="104">SUM(Y50:Y53)</f>
+        <v>87.983999999999995</v>
+      </c>
+      <c r="Z54" s="11">
+        <f t="shared" ref="Z54" si="105">SUM(Z50:Z53)</f>
+        <v>120.974</v>
+      </c>
+      <c r="AA54" s="14">
+        <f t="shared" ref="AA54" si="106">SUM(AA50:AA53)</f>
+        <v>150.28799999999998</v>
+      </c>
+      <c r="AB54" s="11">
+        <f t="shared" ref="AB54" si="107">SUM(AB50:AB53)</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="11">
-        <f>SUM(Q50:Q53)</f>
+      <c r="AC54" s="11">
+        <f t="shared" ref="AC54" si="108">SUM(AC50:AC53)</f>
         <v>0</v>
       </c>
-      <c r="R54" s="11">
-        <f>SUM(R50:R53)</f>
-        <v>0</v>
-      </c>
-      <c r="S54" s="11">
-        <f>SUM(S50:S53)</f>
-        <v>56.333999999999996</v>
-      </c>
-      <c r="T54" s="11">
-        <f>SUM(T50:T53)</f>
-        <v>59.249000000000002</v>
-      </c>
-      <c r="U54" s="11">
-        <f>SUM(U50:U53)</f>
-        <v>60.278000000000006</v>
-      </c>
-      <c r="V54" s="11">
-        <f>SUM(V50:V53)</f>
-        <v>67.164000000000001</v>
-      </c>
-      <c r="W54" s="11">
-        <f>SUM(W50:W53)</f>
-        <v>82.501000000000005</v>
-      </c>
-      <c r="X54" s="11">
-        <f>SUM(X50:X53)</f>
-        <v>86.853999999999985</v>
-      </c>
-      <c r="Y54" s="14">
-        <f>SUM(Y50:Y53)</f>
-        <v>82.067999999999998</v>
-      </c>
-      <c r="Z54" s="11">
-        <f>SUM(Z50:Z53)</f>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="11">
-        <f>SUM(AA50:AA53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AD54" s="11"/>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C55" s="10">
         <f>C44-C54</f>
@@ -17039,96 +17575,182 @@
         <f>F44-F54</f>
         <v>158.33199999999999</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="140">
         <f>G44-G54</f>
         <v>192.67699999999999</v>
       </c>
-      <c r="L55" s="10">
-        <f>L44-L54</f>
+      <c r="H55" s="15">
+        <f t="shared" ref="H55:J55" si="109">H44-H54</f>
+        <v>269.30200000000002</v>
+      </c>
+      <c r="I55" s="140">
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
+      <c r="J55" s="140">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="M55" s="10">
-        <f>M44-M54</f>
+        <f t="shared" ref="M55:X55" si="110">M44-M54</f>
         <v>0</v>
       </c>
       <c r="N55" s="10">
-        <f>N44-N54</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O55" s="10">
-        <f>O44-O54</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="P55" s="10">
-        <f>P44-P54</f>
+        <f t="shared" si="110"/>
+        <v>158.33199999999999</v>
+      </c>
+      <c r="Q55" s="10">
+        <f t="shared" si="110"/>
+        <v>167.53</v>
+      </c>
+      <c r="R55" s="10">
+        <f t="shared" si="110"/>
+        <v>176.04399999999998</v>
+      </c>
+      <c r="S55" s="10">
+        <f t="shared" si="110"/>
+        <v>182.875</v>
+      </c>
+      <c r="T55" s="10">
+        <f t="shared" si="110"/>
+        <v>192.67699999999999</v>
+      </c>
+      <c r="U55" s="10">
+        <f t="shared" si="110"/>
+        <v>213.30399999999997</v>
+      </c>
+      <c r="V55" s="140">
+        <f t="shared" si="110"/>
+        <v>238.42100000000005</v>
+      </c>
+      <c r="W55" s="10">
+        <f t="shared" si="110"/>
+        <v>253.36</v>
+      </c>
+      <c r="X55" s="10">
+        <f t="shared" si="110"/>
+        <v>269.30200000000002</v>
+      </c>
+      <c r="Y55" s="10">
+        <f t="shared" ref="Y55" si="111">Y44-Y54</f>
+        <v>288.90500000000009</v>
+      </c>
+      <c r="Z55" s="10">
+        <f t="shared" ref="Z55" si="112">Z44-Z54</f>
+        <v>309.77800000000002</v>
+      </c>
+      <c r="AA55" s="15">
+        <f t="shared" ref="AA55" si="113">AA44-AA54</f>
+        <v>331.21600000000001</v>
+      </c>
+      <c r="AB55" s="10">
+        <f t="shared" ref="AB55" si="114">AB44-AB54</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="10">
-        <f>Q44-Q54</f>
+      <c r="AC55" s="10">
+        <f t="shared" ref="AC55" si="115">AC44-AC54</f>
         <v>0</v>
       </c>
-      <c r="R55" s="10">
-        <f>R44-R54</f>
-        <v>0</v>
-      </c>
-      <c r="S55" s="10">
-        <f>S44-S54</f>
-        <v>158.33199999999999</v>
-      </c>
-      <c r="T55" s="10">
-        <f>T44-T54</f>
-        <v>167.53</v>
-      </c>
-      <c r="U55" s="10">
-        <f>U44-U54</f>
-        <v>176.04399999999998</v>
-      </c>
-      <c r="V55" s="10">
-        <f>V44-V54</f>
-        <v>182.875</v>
-      </c>
-      <c r="W55" s="10">
-        <f>W44-W54</f>
-        <v>192.67699999999999</v>
-      </c>
-      <c r="X55" s="10">
-        <f>X44-X54</f>
-        <v>213.30399999999997</v>
-      </c>
-      <c r="Y55" s="15">
-        <f>Y44-Y54</f>
-        <v>238.42100000000005</v>
-      </c>
-      <c r="Z55" s="10">
-        <f>Z44-Z54</f>
-        <v>0</v>
-      </c>
-      <c r="AA55" s="10">
-        <f>AA44-AA54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD55" s="10"/>
+    </row>
+    <row r="57" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="52"/>
-      <c r="Y57" s="16"/>
-    </row>
-    <row r="75" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G75" s="41"/>
-      <c r="Y75" s="41"/>
-    </row>
-    <row r="76" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G76" s="16"/>
-      <c r="Y76" s="16"/>
+        <v>213</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="16"/>
+      <c r="Q57" s="152">
+        <f>Q55/P55-1</f>
+        <v>5.8093120784175056E-2</v>
+      </c>
+      <c r="R57" s="152">
+        <f>R55/Q55-1</f>
+        <v>5.0820748522652615E-2</v>
+      </c>
+      <c r="S57" s="152">
+        <f t="shared" ref="S57:X57" si="116">S55/R55-1</f>
+        <v>3.8802799300175161E-2</v>
+      </c>
+      <c r="T57" s="152">
+        <f t="shared" si="116"/>
+        <v>5.3599453178400536E-2</v>
+      </c>
+      <c r="U57" s="152">
+        <f t="shared" si="116"/>
+        <v>0.10705481193915189</v>
+      </c>
+      <c r="V57" s="152">
+        <f t="shared" si="116"/>
+        <v>0.1177521284176577</v>
+      </c>
+      <c r="W57" s="152">
+        <f t="shared" si="116"/>
+        <v>6.265807122694711E-2</v>
+      </c>
+      <c r="X57" s="152">
+        <f t="shared" si="116"/>
+        <v>6.2922323965898252E-2</v>
+      </c>
+      <c r="Y57" s="152">
+        <f>Y55/X55-1</f>
+        <v>7.2791884204350676E-2</v>
+      </c>
+      <c r="Z57" s="152">
+        <f t="shared" ref="Z57:AD57" si="117">Z55/Y55-1</f>
+        <v>7.2248663055329398E-2</v>
+      </c>
+      <c r="AA57" s="153">
+        <f t="shared" si="117"/>
+        <v>6.9204397988236632E-2</v>
+      </c>
+      <c r="AB57" s="152">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="AC57" s="152" t="e">
+        <f t="shared" si="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD57" s="152"/>
+    </row>
+    <row r="75" spans="7:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="146"/>
+      <c r="H75" s="41"/>
+      <c r="V75" s="146"/>
+      <c r="AA75" s="41"/>
+    </row>
+    <row r="76" spans="7:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="147"/>
+      <c r="H76" s="16"/>
+      <c r="V76" s="147"/>
+      <c r="AA76" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="R23:AA23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A5C06EBA-D952-421E-93A2-3BF49E6344BF}"/>
   </hyperlinks>
@@ -17152,7 +17774,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -17214,7 +17836,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -17268,26 +17890,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -17297,7 +17919,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -17308,7 +17930,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -25603,60 +26225,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="135" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="137"/>
+        <v>86</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
         <f>C2/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="61" t="s">
         <v>93</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="68" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -25664,27 +26286,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="69" t="e">
+      <c r="H4" s="62" t="e">
         <f>$I$19-3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="70" t="e">
+      <c r="I4" s="63" t="e">
         <f>H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="64">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K4" s="71" t="e">
+      <c r="K4" s="64" t="e">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="72" t="e">
+      <c r="L4" s="65" t="e">
         <f>J4/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="73" t="e">
+      <c r="M4" s="66" t="e">
         <f>L4</f>
         <v>#DIV/0!</v>
       </c>
@@ -25694,27 +26316,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="74" t="e">
+      <c r="H5" s="67" t="e">
         <f>$I$19-2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="75" t="e">
+      <c r="I5" s="68" t="e">
         <f>H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="69">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K5" s="77" t="e">
+      <c r="K5" s="70" t="e">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="78" t="e">
+      <c r="L5" s="71" t="e">
         <f>J5/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="79" t="e">
+      <c r="M5" s="72" t="e">
         <f>M4+L5</f>
         <v>#DIV/0!</v>
       </c>
@@ -25724,27 +26346,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="74" t="e">
+      <c r="H6" s="67" t="e">
         <f>$I$19-1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="75" t="e">
+      <c r="I6" s="68" t="e">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="69">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>67</v>
       </c>
-      <c r="K6" s="77" t="e">
+      <c r="K6" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="78" t="e">
+      <c r="L6" s="71" t="e">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="79" t="e">
+      <c r="M6" s="72" t="e">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>#DIV/0!</v>
       </c>
@@ -25754,27 +26376,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="74" t="e">
+      <c r="H7" s="67" t="e">
         <f>$I$19-1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="75" t="e">
+      <c r="I7" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K7" s="77" t="e">
+      <c r="K7" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="78" t="e">
+      <c r="L7" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="79" t="e">
+      <c r="M7" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25784,27 +26406,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="74" t="e">
+      <c r="H8" s="67" t="e">
         <f>$I$19-0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="75" t="e">
+      <c r="I8" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K8" s="77" t="e">
+      <c r="K8" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="78" t="e">
+      <c r="L8" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="79" t="e">
+      <c r="M8" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25814,27 +26436,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="74" t="e">
+      <c r="H9" s="67" t="e">
         <f>$I$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="75" t="e">
+      <c r="I9" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K9" s="77" t="e">
+      <c r="K9" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="78" t="e">
+      <c r="L9" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="79" t="e">
+      <c r="M9" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25844,27 +26466,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="74" t="e">
+      <c r="H10" s="67" t="e">
         <f>$I$19+0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="75" t="e">
+      <c r="I10" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K10" s="77" t="e">
+      <c r="K10" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="78" t="e">
+      <c r="L10" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="79" t="e">
+      <c r="M10" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25874,27 +26496,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="74" t="e">
+      <c r="H11" s="67" t="e">
         <f>$I$19+1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="75" t="e">
+      <c r="I11" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K11" s="77" t="e">
+      <c r="K11" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="78" t="e">
+      <c r="L11" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="79" t="e">
+      <c r="M11" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25904,27 +26526,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="74" t="e">
+      <c r="H12" s="67" t="e">
         <f>$I$19+1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="75" t="e">
+      <c r="I12" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K12" s="77" t="e">
+      <c r="K12" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="78" t="e">
+      <c r="L12" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="79" t="e">
+      <c r="M12" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25934,27 +26556,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="74" t="e">
+      <c r="H13" s="67" t="e">
         <f>$I$19+2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="75" t="e">
+      <c r="I13" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K13" s="77" t="e">
+      <c r="K13" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="78" t="e">
+      <c r="L13" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="79" t="e">
+      <c r="M13" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25964,27 +26586,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="74" t="e">
+      <c r="H14" s="67" t="e">
         <f>$I$19+3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="75" t="e">
+      <c r="I14" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="69">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K14" s="77" t="e">
+      <c r="K14" s="70" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="78" t="e">
+      <c r="L14" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="79" t="e">
+      <c r="M14" s="72" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25994,23 +26616,23 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="81">
+      <c r="H15" s="73"/>
+      <c r="I15" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="74">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>67</v>
       </c>
-      <c r="K15" s="81" t="e">
+      <c r="K15" s="74" t="e">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="82" t="e">
+      <c r="L15" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="82" t="e">
+      <c r="M15" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -26020,350 +26642,350 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="M16" s="84"/>
+      <c r="H16" s="76"/>
+      <c r="M16" s="77"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="139"/>
-      <c r="M17" s="84"/>
+      <c r="H17" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="131"/>
+      <c r="M17" s="77"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="140"/>
-      <c r="I18" s="141"/>
-      <c r="M18" s="84"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="133"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="122" t="e">
+      <c r="H19" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="114" t="e">
         <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="84"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="122" t="e">
+      <c r="H20" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="114" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="84"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" s="122" t="e">
+      <c r="H21" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="114" t="e">
         <f>MEDIAN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="77"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="122" t="e">
+      <c r="H22" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="114" t="e">
         <f>MODE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="84"/>
+      <c r="M22" s="77"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="122" t="e">
+      <c r="H23" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="114" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="84"/>
+      <c r="M23" s="77"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="122" t="e">
+      <c r="H24" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="114" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="84"/>
+      <c r="M24" s="77"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="123" t="e">
+      <c r="H25" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="115" t="e">
         <f>KURT(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="84"/>
+      <c r="M25" s="77"/>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="123" t="e">
+      <c r="H26" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="115" t="e">
         <f>SKEW(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="84"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="122" t="e">
+      <c r="H27" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="114" t="e">
         <f>I29-I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="84"/>
+      <c r="M27" s="77"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="122" t="e">
+      <c r="H28" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="114" t="e">
         <f>MIN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="84"/>
+      <c r="M28" s="77"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" s="122" t="e">
+      <c r="H29" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="114" t="e">
         <f>MAX(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="84"/>
+      <c r="M29" s="77"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="123" t="e">
+      <c r="H30" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="115" t="e">
         <f>SUM(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="84"/>
+      <c r="M30" s="77"/>
     </row>
     <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="63">
+      <c r="H31" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="56">
         <f>COUNT(D:D)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="84"/>
+      <c r="M31" s="77"/>
     </row>
     <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="88"/>
-      <c r="M32" s="84"/>
+      <c r="H32" s="81"/>
+      <c r="M32" s="77"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="89"/>
-      <c r="I33" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="K33" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="L33" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="M33" s="84"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="M33" s="77"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="78" t="e">
+      <c r="H34" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="71" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="76">
+      <c r="J34" s="69">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="78" t="e">
+      <c r="K34" s="71" t="e">
         <f>J34/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="79" t="e">
+      <c r="L34" s="72" t="e">
         <f>K34*I34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="84"/>
+      <c r="M34" s="77"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="78" t="e">
+      <c r="H35" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="71" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="76">
+      <c r="J35" s="69">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="78" t="e">
+      <c r="K35" s="71" t="e">
         <f>J35/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="79" t="e">
+      <c r="L35" s="72" t="e">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="84"/>
+      <c r="M35" s="77"/>
     </row>
     <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" s="81">
+      <c r="H36" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="74">
         <v>0</v>
       </c>
-      <c r="J36" s="81">
+      <c r="J36" s="74">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="94" t="e">
+      <c r="K36" s="87" t="e">
         <f>J36/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="82" t="e">
+      <c r="L36" s="75" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="84"/>
+      <c r="M36" s="77"/>
     </row>
     <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="88"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="84"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="77"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="L38" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="M38" s="84" t="s">
         <v>118</v>
-      </c>
-      <c r="I38" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="K38" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="L38" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38" s="91" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -26371,26 +26993,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="96">
+      <c r="H39" s="89">
         <v>1</v>
       </c>
-      <c r="I39" s="78" t="e">
+      <c r="I39" s="71" t="e">
         <f>$I$19+($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="78" t="e">
+      <c r="J39" s="71" t="e">
         <f>$I$19-($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="76">
+      <c r="K39" s="69">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>67</v>
       </c>
-      <c r="L39" s="78" t="e">
+      <c r="L39" s="71" t="e">
         <f>K39/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="79">
+      <c r="M39" s="72">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -26399,26 +27021,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="96">
+      <c r="H40" s="89">
         <v>2</v>
       </c>
-      <c r="I40" s="78" t="e">
+      <c r="I40" s="71" t="e">
         <f>$I$19+($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="78" t="e">
+      <c r="J40" s="71" t="e">
         <f>$I$19-($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="76">
+      <c r="K40" s="69">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>67</v>
       </c>
-      <c r="L40" s="78" t="e">
+      <c r="L40" s="71" t="e">
         <f>K40/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="79">
+      <c r="M40" s="72">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -26427,26 +27049,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="96">
+      <c r="H41" s="89">
         <v>3</v>
       </c>
-      <c r="I41" s="78" t="e">
+      <c r="I41" s="71" t="e">
         <f>$I$19+($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="78" t="e">
+      <c r="J41" s="71" t="e">
         <f>$I$19-($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="76">
+      <c r="K41" s="69">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>67</v>
       </c>
-      <c r="L41" s="78" t="e">
+      <c r="L41" s="71" t="e">
         <f>K41/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="97">
+      <c r="M41" s="90">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -26455,46 +27077,46 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="M42" s="97"/>
+      <c r="H42" s="67"/>
+      <c r="M42" s="90"/>
     </row>
     <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="144"/>
+      <c r="H43" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="136"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="98">
+      <c r="H44" s="91">
         <v>0.01</v>
       </c>
-      <c r="I44" s="99" t="e">
+      <c r="I44" s="92" t="e">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="100">
+      <c r="J44" s="93">
         <v>0.2</v>
       </c>
-      <c r="K44" s="99" t="e">
+      <c r="K44" s="92" t="e">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="100">
+      <c r="L44" s="93">
         <v>0.85</v>
       </c>
-      <c r="M44" s="101" t="e">
+      <c r="M44" s="94" t="e">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -26504,24 +27126,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="102">
+      <c r="H45" s="95">
         <v>0.02</v>
       </c>
-      <c r="I45" s="103" t="e">
+      <c r="I45" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="104">
+      <c r="J45" s="97">
         <v>0.25</v>
       </c>
-      <c r="K45" s="103" t="e">
+      <c r="K45" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="104">
+      <c r="L45" s="97">
         <v>0.86</v>
       </c>
-      <c r="M45" s="105" t="e">
+      <c r="M45" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26531,24 +27153,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="102">
+      <c r="H46" s="95">
         <v>0.03</v>
       </c>
-      <c r="I46" s="103" t="e">
+      <c r="I46" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="104">
+      <c r="J46" s="97">
         <v>0.3</v>
       </c>
-      <c r="K46" s="103" t="e">
+      <c r="K46" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="104">
+      <c r="L46" s="97">
         <v>0.87</v>
       </c>
-      <c r="M46" s="105" t="e">
+      <c r="M46" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26558,24 +27180,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="102">
+      <c r="H47" s="95">
         <v>0.04</v>
       </c>
-      <c r="I47" s="103" t="e">
+      <c r="I47" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="104">
+      <c r="J47" s="97">
         <v>0.35</v>
       </c>
-      <c r="K47" s="103" t="e">
+      <c r="K47" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="104">
+      <c r="L47" s="97">
         <v>0.88</v>
       </c>
-      <c r="M47" s="105" t="e">
+      <c r="M47" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26585,24 +27207,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="102">
+      <c r="H48" s="95">
         <v>0.05</v>
       </c>
-      <c r="I48" s="103" t="e">
+      <c r="I48" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="104">
+      <c r="J48" s="97">
         <v>0.4</v>
       </c>
-      <c r="K48" s="103" t="e">
+      <c r="K48" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="104">
+      <c r="L48" s="97">
         <v>0.89</v>
       </c>
-      <c r="M48" s="105" t="e">
+      <c r="M48" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26612,24 +27234,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="102">
+      <c r="H49" s="95">
         <v>0.06</v>
       </c>
-      <c r="I49" s="103" t="e">
+      <c r="I49" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="104">
+      <c r="J49" s="97">
         <v>0.45</v>
       </c>
-      <c r="K49" s="103" t="e">
+      <c r="K49" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="104">
+      <c r="L49" s="97">
         <v>0.9</v>
       </c>
-      <c r="M49" s="105" t="e">
+      <c r="M49" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26639,24 +27261,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="102">
+      <c r="H50" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="103" t="e">
+      <c r="I50" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="104">
+      <c r="J50" s="97">
         <v>0.5</v>
       </c>
-      <c r="K50" s="103" t="e">
+      <c r="K50" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="104">
+      <c r="L50" s="97">
         <v>0.91</v>
       </c>
-      <c r="M50" s="105" t="e">
+      <c r="M50" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26666,24 +27288,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="102">
+      <c r="H51" s="95">
         <v>0.08</v>
       </c>
-      <c r="I51" s="103" t="e">
+      <c r="I51" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="104">
+      <c r="J51" s="97">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="103" t="e">
+      <c r="K51" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="104">
+      <c r="L51" s="97">
         <v>0.92</v>
       </c>
-      <c r="M51" s="105" t="e">
+      <c r="M51" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26693,24 +27315,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="102">
+      <c r="H52" s="95">
         <v>0.09</v>
       </c>
-      <c r="I52" s="103" t="e">
+      <c r="I52" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="104">
+      <c r="J52" s="97">
         <v>0.6</v>
       </c>
-      <c r="K52" s="103" t="e">
+      <c r="K52" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="104">
+      <c r="L52" s="97">
         <v>0.93</v>
       </c>
-      <c r="M52" s="105" t="e">
+      <c r="M52" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26720,24 +27342,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="102">
+      <c r="H53" s="95">
         <v>0.1</v>
       </c>
-      <c r="I53" s="103" t="e">
+      <c r="I53" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="104">
+      <c r="J53" s="97">
         <v>0.65</v>
       </c>
-      <c r="K53" s="103" t="e">
+      <c r="K53" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="104">
+      <c r="L53" s="97">
         <v>0.94</v>
       </c>
-      <c r="M53" s="105" t="e">
+      <c r="M53" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26747,24 +27369,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="102">
+      <c r="H54" s="95">
         <v>0.11</v>
       </c>
-      <c r="I54" s="103" t="e">
+      <c r="I54" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="104">
+      <c r="J54" s="97">
         <v>0.7</v>
       </c>
-      <c r="K54" s="103" t="e">
+      <c r="K54" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="104">
+      <c r="L54" s="97">
         <v>0.95</v>
       </c>
-      <c r="M54" s="105" t="e">
+      <c r="M54" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26774,24 +27396,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="102">
+      <c r="H55" s="95">
         <v>0.12</v>
       </c>
-      <c r="I55" s="103" t="e">
+      <c r="I55" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="104">
+      <c r="J55" s="97">
         <v>0.75</v>
       </c>
-      <c r="K55" s="103" t="e">
+      <c r="K55" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="104">
+      <c r="L55" s="97">
         <v>0.96</v>
       </c>
-      <c r="M55" s="105" t="e">
+      <c r="M55" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26801,24 +27423,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="102">
+      <c r="H56" s="95">
         <v>0.13</v>
       </c>
-      <c r="I56" s="103" t="e">
+      <c r="I56" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="104">
+      <c r="J56" s="97">
         <v>0.8</v>
       </c>
-      <c r="K56" s="103" t="e">
+      <c r="K56" s="96" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="104">
+      <c r="L56" s="97">
         <v>0.97</v>
       </c>
-      <c r="M56" s="105" t="e">
+      <c r="M56" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26828,19 +27450,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="102">
+      <c r="H57" s="95">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="103" t="e">
+      <c r="I57" s="96" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="104"/>
-      <c r="K57" s="103"/>
-      <c r="L57" s="104">
+      <c r="J57" s="97"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="97">
         <v>0.98</v>
       </c>
-      <c r="M57" s="105" t="e">
+      <c r="M57" s="98" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26850,19 +27472,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="106">
+      <c r="H58" s="99">
         <v>0.15</v>
       </c>
-      <c r="I58" s="107" t="e">
+      <c r="I58" s="100" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="108"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="109">
+      <c r="J58" s="101"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="102">
         <v>0.99</v>
       </c>
-      <c r="M58" s="110" t="e">
+      <c r="M58" s="103" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26878,47 +27500,47 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="I60" s="112"/>
+      <c r="H60" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="I60" s="105"/>
     </row>
     <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="I61" s="114"/>
+      <c r="H61" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="I61" s="107"/>
     </row>
     <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="115"/>
+      <c r="H62" s="108"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="I63" s="116"/>
+      <c r="H63" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" s="109"/>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="117" t="s">
-        <v>128</v>
-      </c>
-      <c r="I64" s="118">
+      <c r="H64" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="I64" s="111">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -26928,10 +27550,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="I65" s="119">
+      <c r="H65" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="I65" s="112">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>
